--- a/прайс И от 24.02.2016 (интерьер центр).xlsx
+++ b/прайс И от 24.02.2016 (интерьер центр).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="45" windowWidth="15480" windowHeight="11580" tabRatio="231" activeTab="2"/>
+    <workbookView xWindow="13095" yWindow="45" windowWidth="15480" windowHeight="11580" tabRatio="231" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="503">
   <si>
     <t>Мебель для Кухни</t>
   </si>
@@ -2398,7 +2398,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2623,205 +2623,6 @@
     <xf numFmtId="0" fontId="24" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2849,22 +2650,7 @@
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2892,6 +2678,208 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3269,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S325"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3291,54 +3279,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="144"/>
+      <c r="C2" s="118"/>
     </row>
     <row r="3" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
     </row>
     <row r="8" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="143"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="12"/>
       <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="12"/>
       <c r="F10" s="73" t="s">
         <v>387</v>
@@ -3354,10 +3342,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="72" t="s">
         <v>382</v>
       </c>
@@ -3379,10 +3367,10 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="12"/>
       <c r="F13" s="73" t="s">
         <v>389</v>
@@ -3623,10 +3611,10 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="142" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,10 +3729,10 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="133"/>
+      <c r="C33" s="141"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3828,10 +3816,10 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="111"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3849,10 +3837,10 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="113"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,10 +3899,10 @@
       </c>
     </row>
     <row r="45" spans="2:14" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="113"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="12"/>
       <c r="F45" s="73" t="s">
         <v>392</v>
@@ -3980,10 +3968,10 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="149" t="s">
+      <c r="B49" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="150"/>
+      <c r="C49" s="124"/>
       <c r="D49" s="12"/>
       <c r="F49" s="81" t="s">
         <v>405</v>
@@ -3996,10 +3984,10 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="152"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="12"/>
       <c r="F50" s="84" t="s">
         <v>406</v>
@@ -4010,10 +3998,10 @@
       <c r="H50" s="81"/>
     </row>
     <row r="51" spans="2:14" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="126" t="s">
+      <c r="B51" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="127"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="53"/>
       <c r="F51" s="82" t="s">
         <v>407</v>
@@ -4059,10 +4047,10 @@
       <c r="C55" s="39">
         <v>219240.00000000003</v>
       </c>
-      <c r="D55" s="139" t="s">
+      <c r="D55" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="E55" s="140"/>
+      <c r="E55" s="112"/>
       <c r="F55" s="83" t="s">
         <v>408</v>
       </c>
@@ -4077,8 +4065,8 @@
       <c r="C56" s="39">
         <v>257040.00000000003</v>
       </c>
-      <c r="D56" s="139"/>
-      <c r="E56" s="140"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="112"/>
       <c r="F56" s="83" t="s">
         <v>409</v>
       </c>
@@ -4093,8 +4081,8 @@
       <c r="C57" s="39">
         <v>299880.00000000006</v>
       </c>
-      <c r="D57" s="139"/>
-      <c r="E57" s="140"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="112"/>
       <c r="F57" s="83" t="s">
         <v>410</v>
       </c>
@@ -4109,8 +4097,8 @@
       <c r="C58" s="39">
         <v>171360</v>
       </c>
-      <c r="D58" s="139"/>
-      <c r="E58" s="140"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="112"/>
       <c r="F58" s="86"/>
     </row>
     <row r="59" spans="2:14" ht="18" x14ac:dyDescent="0.25">
@@ -4120,8 +4108,8 @@
       <c r="C59" s="39">
         <v>176400</v>
       </c>
-      <c r="D59" s="139"/>
-      <c r="E59" s="140"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="112"/>
       <c r="F59" s="83" t="s">
         <v>411</v>
       </c>
@@ -4136,8 +4124,8 @@
       <c r="C60" s="39">
         <v>199080</v>
       </c>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="112"/>
       <c r="F60" s="86"/>
     </row>
     <row r="61" spans="2:14" ht="18" x14ac:dyDescent="0.25">
@@ -4147,8 +4135,8 @@
       <c r="C61" s="40">
         <v>703080.00000000012</v>
       </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="140"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="112"/>
       <c r="F61" s="83" t="s">
         <v>413</v>
       </c>
@@ -4163,8 +4151,8 @@
       <c r="C62" s="39">
         <v>136080</v>
       </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="112"/>
       <c r="F62" s="83" t="s">
         <v>414</v>
       </c>
@@ -4179,8 +4167,8 @@
       <c r="C63" s="39">
         <v>199080</v>
       </c>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="112"/>
       <c r="F63" s="83" t="s">
         <v>415</v>
       </c>
@@ -4195,8 +4183,8 @@
       <c r="C64" s="39">
         <v>357840.00000000006</v>
       </c>
-      <c r="D64" s="139"/>
-      <c r="E64" s="140"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="112"/>
       <c r="F64" s="83" t="s">
         <v>416</v>
       </c>
@@ -4211,8 +4199,8 @@
       <c r="C65" s="41">
         <v>372960</v>
       </c>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="112"/>
       <c r="F65" s="83" t="s">
         <v>417</v>
       </c>
@@ -4227,8 +4215,8 @@
       <c r="C66" s="38">
         <v>279720</v>
       </c>
-      <c r="D66" s="139"/>
-      <c r="E66" s="140"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="112"/>
     </row>
     <row r="67" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -4237,8 +4225,8 @@
       <c r="C67" s="39">
         <v>350280.00000000006</v>
       </c>
-      <c r="D67" s="139"/>
-      <c r="E67" s="140"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="112"/>
       <c r="F67" s="83" t="s">
         <v>418</v>
       </c>
@@ -4253,8 +4241,8 @@
       <c r="C68" s="39">
         <v>408240.00000000006</v>
       </c>
-      <c r="D68" s="139"/>
-      <c r="E68" s="140"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="112"/>
       <c r="F68" s="84" t="s">
         <v>420</v>
       </c>
@@ -4272,8 +4260,8 @@
       <c r="C69" s="39">
         <v>458640.00000000006</v>
       </c>
-      <c r="D69" s="139"/>
-      <c r="E69" s="140"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="112"/>
       <c r="F69" s="76" t="s">
         <v>422</v>
       </c>
@@ -4291,8 +4279,8 @@
       <c r="C70" s="40">
         <v>516600.00000000006</v>
       </c>
-      <c r="D70" s="139"/>
-      <c r="E70" s="140"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="112"/>
       <c r="F70" s="76" t="s">
         <v>424</v>
       </c>
@@ -4310,8 +4298,8 @@
       <c r="C71" s="40">
         <v>632520</v>
       </c>
-      <c r="D71" s="139"/>
-      <c r="E71" s="140"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="112"/>
       <c r="F71" s="76" t="s">
         <v>425</v>
       </c>
@@ -4329,8 +4317,8 @@
       <c r="C72" s="39">
         <v>478800.00000000006</v>
       </c>
-      <c r="D72" s="139"/>
-      <c r="E72" s="140"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="112"/>
       <c r="F72" s="76" t="s">
         <v>426</v>
       </c>
@@ -4348,8 +4336,8 @@
       <c r="C73" s="40">
         <v>713160.00000000012</v>
       </c>
-      <c r="D73" s="139"/>
-      <c r="E73" s="140"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="112"/>
       <c r="F73" s="76" t="s">
         <v>428</v>
       </c>
@@ -4364,8 +4352,8 @@
       <c r="C74" s="40">
         <v>768600.00000000012</v>
       </c>
-      <c r="D74" s="139"/>
-      <c r="E74" s="140"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="112"/>
       <c r="G74" s="25">
         <v>1002960</v>
       </c>
@@ -4377,8 +4365,8 @@
       <c r="C75" s="39">
         <v>360360</v>
       </c>
-      <c r="D75" s="139"/>
-      <c r="E75" s="140"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="112"/>
       <c r="G75" s="15">
         <v>851760</v>
       </c>
@@ -4390,8 +4378,8 @@
       <c r="C76" s="40">
         <v>813960.00000000012</v>
       </c>
-      <c r="D76" s="139"/>
-      <c r="E76" s="140"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="112"/>
       <c r="F76" s="76" t="s">
         <v>430</v>
       </c>
@@ -4406,8 +4394,8 @@
       <c r="C77" s="40">
         <v>745920</v>
       </c>
-      <c r="D77" s="139"/>
-      <c r="E77" s="140"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="112"/>
       <c r="H77" s="25">
         <v>1002960</v>
       </c>
@@ -4419,8 +4407,8 @@
       <c r="C78" s="40">
         <v>516600.00000000006</v>
       </c>
-      <c r="D78" s="139"/>
-      <c r="E78" s="140"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="112"/>
       <c r="H78" s="15">
         <v>851760</v>
       </c>
@@ -4432,8 +4420,8 @@
       <c r="C79" s="39">
         <v>267120</v>
       </c>
-      <c r="D79" s="139"/>
-      <c r="E79" s="140"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="112"/>
       <c r="F79" s="76" t="s">
         <v>431</v>
       </c>
@@ -4448,8 +4436,8 @@
       <c r="C80" s="39">
         <v>307440.00000000006</v>
       </c>
-      <c r="D80" s="139"/>
-      <c r="E80" s="140"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="112"/>
       <c r="F80" s="76" t="s">
         <v>432</v>
       </c>
@@ -4464,8 +4452,8 @@
       <c r="C81" s="39">
         <v>337680.00000000006</v>
       </c>
-      <c r="D81" s="139"/>
-      <c r="E81" s="140"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="112"/>
       <c r="G81" s="29">
         <v>851760</v>
       </c>
@@ -4477,8 +4465,8 @@
       <c r="C82" s="39">
         <v>292320</v>
       </c>
-      <c r="D82" s="139"/>
-      <c r="E82" s="140"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="112"/>
       <c r="G82" s="13">
         <v>700560</v>
       </c>
@@ -4490,8 +4478,8 @@
       <c r="C83" s="39">
         <v>292320</v>
       </c>
-      <c r="D83" s="139"/>
-      <c r="E83" s="140"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="112"/>
       <c r="F83" s="76" t="s">
         <v>433</v>
       </c>
@@ -4506,8 +4494,8 @@
       <c r="C84" s="39">
         <v>420840.00000000006</v>
       </c>
-      <c r="D84" s="139"/>
-      <c r="E84" s="140"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="112"/>
       <c r="G84" s="29">
         <v>851760</v>
       </c>
@@ -4604,10 +4592,10 @@
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:14" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="112" t="s">
+      <c r="B92" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="C92" s="113"/>
+      <c r="C92" s="128"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
@@ -4761,14 +4749,14 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="2:15" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="153" t="s">
+      <c r="B108" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="156"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="133"/>
+      <c r="F108" s="133"/>
+      <c r="G108" s="134"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -4779,23 +4767,23 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="2:15" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="120" t="s">
+      <c r="B109" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="135" t="s">
         <v>246</v>
       </c>
-      <c r="D109" s="128" t="s">
+      <c r="D109" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="E109" s="96" t="s">
+      <c r="E109" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="F109" s="97"/>
-      <c r="G109" s="98"/>
-      <c r="H109" s="93"/>
-      <c r="I109" s="93"/>
-      <c r="J109" s="93"/>
+      <c r="F109" s="172"/>
+      <c r="G109" s="173"/>
+      <c r="H109" s="170"/>
+      <c r="I109" s="170"/>
+      <c r="J109" s="170"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4803,15 +4791,15 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="2:15" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="121"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="100"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="93"/>
-      <c r="I110" s="93"/>
-      <c r="J110" s="93"/>
+      <c r="B110" s="160"/>
+      <c r="C110" s="136"/>
+      <c r="D110" s="168"/>
+      <c r="E110" s="174"/>
+      <c r="F110" s="175"/>
+      <c r="G110" s="176"/>
+      <c r="H110" s="170"/>
+      <c r="I110" s="170"/>
+      <c r="J110" s="170"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4819,20 +4807,20 @@
       <c r="O110" s="5"/>
     </row>
     <row r="111" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="121"/>
-      <c r="C111" s="94" t="s">
+      <c r="B111" s="160"/>
+      <c r="C111" s="135" t="s">
         <v>301</v>
       </c>
-      <c r="D111" s="102" t="s">
+      <c r="D111" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="F111" s="90" t="s">
+      <c r="F111" s="165" t="s">
         <v>263</v>
       </c>
-      <c r="G111" s="90" t="s">
+      <c r="G111" s="165" t="s">
         <v>260</v>
       </c>
       <c r="H111" s="5"/>
@@ -4845,12 +4833,12 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="2:15" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="122"/>
-      <c r="C112" s="95"/>
-      <c r="D112" s="103"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
-      <c r="G112" s="92"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="136"/>
+      <c r="D112" s="168"/>
+      <c r="E112" s="166"/>
+      <c r="F112" s="166"/>
+      <c r="G112" s="169"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -5816,12 +5804,12 @@
       <c r="L148" s="48"/>
     </row>
     <row r="149" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="123" t="s">
+      <c r="B149" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="124"/>
-      <c r="D149" s="124"/>
-      <c r="E149" s="125"/>
+      <c r="C149" s="163"/>
+      <c r="D149" s="163"/>
+      <c r="E149" s="164"/>
     </row>
     <row r="150" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="43" t="s">
@@ -6684,16 +6672,16 @@
       <c r="H188" s="47"/>
     </row>
     <row r="189" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="130" t="s">
+      <c r="B189" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="131"/>
+      <c r="C189" s="139"/>
     </row>
     <row r="190" spans="2:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="112" t="s">
+      <c r="B190" s="127" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="113"/>
+      <c r="C190" s="128"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="20" t="s">
@@ -7085,10 +7073,10 @@
       </c>
     </row>
     <row r="224" spans="2:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="112" t="s">
+      <c r="B224" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C224" s="113"/>
+      <c r="C224" s="128"/>
       <c r="D224" s="11"/>
       <c r="M224"/>
       <c r="N224"/>
@@ -7118,10 +7106,10 @@
       </c>
     </row>
     <row r="227" spans="2:15" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="151" t="s">
+      <c r="B227" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C227" s="152"/>
+      <c r="C227" s="126"/>
       <c r="D227" s="11"/>
       <c r="M227" s="56">
         <v>1209600</v>
@@ -7129,10 +7117,10 @@
       <c r="N227" s="57"/>
     </row>
     <row r="228" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="147" t="s">
+      <c r="B228" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="C228" s="148"/>
+      <c r="C228" s="122"/>
       <c r="M228" s="58">
         <v>226800.00000000003</v>
       </c>
@@ -7367,10 +7355,10 @@
       </c>
     </row>
     <row r="241" spans="2:15" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="126" t="s">
+      <c r="B241" s="144" t="s">
         <v>177</v>
       </c>
-      <c r="C241" s="127"/>
+      <c r="C241" s="145"/>
       <c r="D241" s="55" t="s">
         <v>125</v>
       </c>
@@ -7569,10 +7557,10 @@
       </c>
     </row>
     <row r="251" spans="2:15" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="114" t="s">
+      <c r="B251" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="C251" s="115"/>
+      <c r="C251" s="156"/>
       <c r="D251" s="11"/>
       <c r="M251"/>
       <c r="N251"/>
@@ -7602,10 +7590,10 @@
       </c>
     </row>
     <row r="254" spans="2:15" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="116" t="s">
+      <c r="B254" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="C254" s="117"/>
+      <c r="C254" s="158"/>
       <c r="D254" s="11"/>
       <c r="M254"/>
       <c r="N254"/>
@@ -7649,10 +7637,10 @@
       </c>
     </row>
     <row r="258" spans="2:15" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="110" t="s">
+      <c r="B258" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="C258" s="111"/>
+      <c r="C258" s="154"/>
       <c r="D258" s="11"/>
       <c r="M258" s="17" t="s">
         <v>113</v>
@@ -7859,19 +7847,19 @@
       </c>
     </row>
     <row r="272" spans="2:15" s="4" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="118" t="s">
+      <c r="B272" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="C272" s="119"/>
+      <c r="C272" s="114"/>
       <c r="D272" s="11"/>
       <c r="M272"/>
       <c r="N272"/>
     </row>
     <row r="273" spans="2:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="108" t="s">
+      <c r="B273" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="109"/>
+      <c r="C273" s="152"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" s="44" t="s">
@@ -8074,10 +8062,10 @@
       </c>
     </row>
     <row r="292" spans="2:14" s="4" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="106" t="s">
+      <c r="B292" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C292" s="107"/>
+      <c r="C292" s="150"/>
       <c r="D292" s="59"/>
       <c r="M292"/>
       <c r="N292"/>
@@ -8167,10 +8155,10 @@
       </c>
     </row>
     <row r="298" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="104" t="s">
+      <c r="B298" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="C298" s="105"/>
+      <c r="C298" s="130"/>
     </row>
     <row r="299" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B299" s="28" t="s">
@@ -8252,10 +8240,10 @@
       </c>
     </row>
     <row r="306" spans="2:14" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="104" t="s">
+      <c r="B306" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C306" s="105"/>
+      <c r="C306" s="130"/>
       <c r="D306" s="11"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -8341,10 +8329,10 @@
       <c r="F312" s="3"/>
     </row>
     <row r="313" spans="2:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="118" t="s">
+      <c r="B313" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="C313" s="119"/>
+      <c r="C313" s="114"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
@@ -8475,6 +8463,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H109:J110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:G110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="D55:E84"/>
     <mergeCell ref="B313:C313"/>
     <mergeCell ref="B1:C1"/>
@@ -8491,38 +8511,6 @@
     <mergeCell ref="B108:G108"/>
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H109:J110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:G110"/>
-    <mergeCell ref="D111:D112"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8534,36 +8522,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F2:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="161" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="165" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.5" style="161" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="161" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="161"/>
+    <col min="1" max="1" width="8.83203125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.5" style="94" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="92" t="s">
         <v>440</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="93" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8571,21 +8559,21 @@
       <c r="A2" s="89">
         <v>3030</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="96" t="s">
         <v>437</v>
       </c>
-      <c r="C2" s="162" t="str">
+      <c r="C2" s="95" t="str">
         <f t="shared" ref="C2:C59" si="0">"public://"&amp;A2&amp;".jpg"</f>
         <v>public://3030.jpg</v>
       </c>
-      <c r="D2" s="167">
+      <c r="D2" s="178">
         <v>2666160</v>
       </c>
-      <c r="E2" s="170">
+      <c r="E2" s="99">
         <f t="shared" ref="E2:E59" si="1">ROUND(D2+1150000,-3)</f>
         <v>3816000</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8593,41 +8581,43 @@
       <c r="A3" s="89">
         <v>3031</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="162" t="str">
+      <c r="C3" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3031.jpg</v>
       </c>
-      <c r="D3" s="168">
+      <c r="D3" s="100">
         <v>2983680</v>
       </c>
-      <c r="E3" s="161">
+      <c r="E3" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F3" s="160"/>
+      <c r="F3" s="93" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="89">
         <v>3032</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="162" t="str">
+      <c r="C4" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3032.jpg</v>
       </c>
-      <c r="D4" s="168">
+      <c r="D4" s="100">
         <v>2983680</v>
       </c>
-      <c r="E4" s="161">
+      <c r="E4" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8635,21 +8625,21 @@
       <c r="A5" s="89">
         <v>3033</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="162" t="str">
+      <c r="C5" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3033.jpg</v>
       </c>
-      <c r="D5" s="168">
+      <c r="D5" s="100">
         <v>2983680</v>
       </c>
-      <c r="E5" s="161">
+      <c r="E5" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8657,21 +8647,21 @@
       <c r="A6" s="89">
         <v>3034</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="C6" s="162" t="str">
+      <c r="C6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3034.jpg</v>
       </c>
-      <c r="D6" s="168">
+      <c r="D6" s="100">
         <v>2983680</v>
       </c>
-      <c r="E6" s="161">
+      <c r="E6" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8679,21 +8669,21 @@
       <c r="A7" s="89">
         <v>3035</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="162" t="str">
+      <c r="C7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3035.jpg</v>
       </c>
-      <c r="D7" s="168">
+      <c r="D7" s="100">
         <v>2983680</v>
       </c>
-      <c r="E7" s="161">
+      <c r="E7" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8701,21 +8691,21 @@
       <c r="A8" s="89">
         <v>3036</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="162" t="str">
+      <c r="C8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3036.jpg</v>
       </c>
-      <c r="D8" s="168">
+      <c r="D8" s="100">
         <v>2983680</v>
       </c>
-      <c r="E8" s="161">
+      <c r="E8" s="94">
         <f t="shared" si="1"/>
         <v>4134000</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8723,21 +8713,21 @@
       <c r="A9" s="89">
         <v>3037</v>
       </c>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="96" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="162" t="str">
+      <c r="C9" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3037.jpg</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="100">
         <v>3301200</v>
       </c>
-      <c r="E9" s="161">
+      <c r="E9" s="94">
         <f t="shared" si="1"/>
         <v>4451000</v>
       </c>
-      <c r="F9" s="160" t="s">
+      <c r="F9" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8745,21 +8735,21 @@
       <c r="A10" s="89">
         <v>3038</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="C10" s="162" t="str">
+      <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3038.jpg</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="100">
         <v>4813200</v>
       </c>
-      <c r="E10" s="161">
+      <c r="E10" s="94">
         <f t="shared" si="1"/>
         <v>5963000</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8767,21 +8757,21 @@
       <c r="A11" s="89">
         <v>3039</v>
       </c>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="C11" s="162" t="str">
+      <c r="C11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3039.jpg</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="100">
         <v>3598560</v>
       </c>
-      <c r="E11" s="161">
+      <c r="E11" s="94">
         <f t="shared" si="1"/>
         <v>4749000</v>
       </c>
-      <c r="F11" s="160" t="s">
+      <c r="F11" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8789,21 +8779,21 @@
       <c r="A12" s="89">
         <v>3040</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="C12" s="162" t="str">
+      <c r="C12" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3040.jpg</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="100">
         <v>4813200</v>
       </c>
-      <c r="E12" s="161">
+      <c r="E12" s="94">
         <f t="shared" si="1"/>
         <v>5963000</v>
       </c>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8811,21 +8801,21 @@
       <c r="A13" s="89">
         <v>3041</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="97" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="162" t="str">
+      <c r="C13" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3041.jpg</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="100">
         <v>3598560</v>
       </c>
-      <c r="E13" s="161">
+      <c r="E13" s="94">
         <f t="shared" si="1"/>
         <v>4749000</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8833,21 +8823,21 @@
       <c r="A14" s="89">
         <v>3042</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="97" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="162" t="str">
+      <c r="C14" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3042.jpg</v>
       </c>
-      <c r="D14" s="169">
+      <c r="D14" s="100">
         <v>2666160</v>
       </c>
-      <c r="E14" s="161">
+      <c r="E14" s="94">
         <f t="shared" si="1"/>
         <v>3816000</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8855,21 +8845,21 @@
       <c r="A15" s="89">
         <v>3043</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="96" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="162" t="str">
+      <c r="C15" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3043.jpg</v>
       </c>
-      <c r="D15" s="169">
+      <c r="D15" s="100">
         <v>2666160</v>
       </c>
-      <c r="E15" s="161">
+      <c r="E15" s="94">
         <f t="shared" si="1"/>
         <v>3816000</v>
       </c>
-      <c r="F15" s="160" t="s">
+      <c r="F15" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8877,21 +8867,21 @@
       <c r="A16" s="89">
         <v>3044</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="96" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="162" t="str">
+      <c r="C16" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3044.jpg</v>
       </c>
-      <c r="D16" s="172">
+      <c r="D16" s="100">
         <v>4576320</v>
       </c>
-      <c r="E16" s="161">
+      <c r="E16" s="94">
         <f>ROUND(D16+1400000,-3)</f>
         <v>5976000</v>
       </c>
-      <c r="F16" s="160" t="s">
+      <c r="F16" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8899,21 +8889,21 @@
       <c r="A17" s="89">
         <v>3045</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="C17" s="162" t="str">
+      <c r="C17" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3045.jpg</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="100">
         <v>3376800</v>
       </c>
-      <c r="E17" s="161">
+      <c r="E17" s="94">
         <f t="shared" si="1"/>
         <v>4527000</v>
       </c>
-      <c r="F17" s="160" t="s">
+      <c r="F17" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8921,21 +8911,21 @@
       <c r="A18" s="89">
         <v>3046</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="96" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="162" t="str">
+      <c r="C18" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3046.jpg</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="100">
         <v>4576320</v>
       </c>
-      <c r="E18" s="161">
+      <c r="E18" s="94">
         <f>ROUND(D18+1400000,-3)</f>
         <v>5976000</v>
       </c>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8943,21 +8933,21 @@
       <c r="A19" s="89">
         <v>3047</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="96" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="162" t="str">
+      <c r="C19" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3047.jpg</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="100">
         <v>3376800</v>
       </c>
-      <c r="E19" s="161">
+      <c r="E19" s="94">
         <f t="shared" si="1"/>
         <v>4527000</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8965,21 +8955,21 @@
       <c r="A20" s="89">
         <v>3048</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="C20" s="162" t="str">
+      <c r="C20" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3048.jpg</v>
       </c>
-      <c r="D20" s="171">
+      <c r="D20" s="100">
         <v>3144960</v>
       </c>
-      <c r="E20" s="161">
+      <c r="E20" s="94">
         <f t="shared" si="1"/>
         <v>4295000</v>
       </c>
-      <c r="F20" s="160" t="s">
+      <c r="F20" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8987,21 +8977,21 @@
       <c r="A21" s="89">
         <v>3049</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="96" t="s">
         <v>481</v>
       </c>
-      <c r="C21" s="162" t="str">
+      <c r="C21" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3049.jpg</v>
       </c>
-      <c r="D21" s="171">
+      <c r="D21" s="100">
         <v>3144960</v>
       </c>
-      <c r="E21" s="161">
+      <c r="E21" s="94">
         <f t="shared" si="1"/>
         <v>4295000</v>
       </c>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9009,21 +8999,21 @@
       <c r="A22" s="89">
         <v>3050</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="162" t="str">
+      <c r="C22" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3050.jpg</v>
       </c>
-      <c r="D22" s="171">
+      <c r="D22" s="100">
         <v>3644160</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9031,21 +9021,21 @@
       <c r="A23" s="89">
         <v>3051</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="96" t="s">
         <v>444</v>
       </c>
-      <c r="C23" s="162" t="str">
+      <c r="C23" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3051.jpg</v>
       </c>
-      <c r="D23" s="171">
+      <c r="D23" s="100">
         <v>3144960</v>
       </c>
-      <c r="E23" s="161">
+      <c r="E23" s="94">
         <f t="shared" si="1"/>
         <v>4295000</v>
       </c>
-      <c r="F23" s="160" t="s">
+      <c r="F23" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9053,21 +9043,21 @@
       <c r="A24" s="89">
         <v>3052</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="C24" s="162" t="str">
+      <c r="C24" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3052.jpg</v>
       </c>
-      <c r="D24" s="172">
+      <c r="D24" s="100">
         <v>3818880</v>
       </c>
-      <c r="E24" s="161">
+      <c r="E24" s="94">
         <f t="shared" si="1"/>
         <v>4969000</v>
       </c>
-      <c r="F24" s="160" t="s">
+      <c r="F24" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9075,21 +9065,21 @@
       <c r="A25" s="89">
         <v>3053</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="162" t="str">
+      <c r="C25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3053.jpg</v>
       </c>
-      <c r="D25" s="172">
+      <c r="D25" s="100">
         <v>3714048</v>
       </c>
-      <c r="E25" s="161">
+      <c r="E25" s="94">
         <f t="shared" si="1"/>
         <v>4864000</v>
       </c>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9097,21 +9087,21 @@
       <c r="A26" s="89">
         <v>3054</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="C26" s="162" t="str">
+      <c r="C26" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3054.jpg</v>
       </c>
-      <c r="D26" s="172">
+      <c r="D26" s="100">
         <v>4093440</v>
       </c>
-      <c r="E26" s="161">
+      <c r="E26" s="94">
         <f t="shared" si="1"/>
         <v>5243000</v>
       </c>
-      <c r="F26" s="160" t="s">
+      <c r="F26" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9119,21 +9109,21 @@
       <c r="A27" s="89">
         <v>3055</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="96" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="162" t="str">
+      <c r="C27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3055.jpg</v>
       </c>
-      <c r="D27" s="172">
+      <c r="D27" s="100">
         <v>3644160</v>
       </c>
-      <c r="E27" s="161">
+      <c r="E27" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F27" s="160" t="s">
+      <c r="F27" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9141,21 +9131,21 @@
       <c r="A28" s="89">
         <v>3056</v>
       </c>
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="C28" s="162" t="str">
+      <c r="C28" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3056.jpg</v>
       </c>
-      <c r="D28" s="172">
+      <c r="D28" s="100">
         <v>3818880</v>
       </c>
-      <c r="E28" s="161">
+      <c r="E28" s="94">
         <f t="shared" si="1"/>
         <v>4969000</v>
       </c>
-      <c r="F28" s="160" t="s">
+      <c r="F28" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9163,666 +9153,681 @@
       <c r="A29" s="89">
         <v>3057</v>
       </c>
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="162" t="str">
+      <c r="C29" s="95" t="str">
         <f t="shared" si="0"/>
         <v>public://3057.jpg</v>
       </c>
-      <c r="D29" s="172">
+      <c r="D29" s="100">
         <v>3714048</v>
       </c>
-      <c r="E29" s="161">
+      <c r="E29" s="94">
         <f t="shared" si="1"/>
         <v>4864000</v>
       </c>
-      <c r="F29" s="160" t="s">
+      <c r="F29" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="163" t="s">
+      <c r="A30" s="89">
+        <v>3058</v>
+      </c>
+      <c r="B30" s="96" t="s">
         <v>485</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="D30" s="166">
+      <c r="C30" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>public://3058.jpg</v>
+      </c>
+      <c r="D30" s="100">
         <v>4093440</v>
       </c>
-      <c r="E30" s="161">
+      <c r="E30" s="94">
         <f t="shared" si="1"/>
         <v>5243000</v>
       </c>
-      <c r="F30" s="160"/>
+      <c r="F30" s="93" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
-        <v>3058</v>
-      </c>
-      <c r="B31" s="163" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B31" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="C31" s="162" t="str">
+      <c r="C31" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3058.jpg</v>
-      </c>
-      <c r="D31" s="166">
+        <v>public://3059.jpg</v>
+      </c>
+      <c r="D31" s="100">
         <v>3644160</v>
       </c>
-      <c r="E31" s="161">
+      <c r="E31" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
-        <v>3059</v>
-      </c>
-      <c r="B32" s="163" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B32" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="C32" s="162" t="str">
+      <c r="C32" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3059.jpg</v>
-      </c>
-      <c r="D32" s="166">
+        <v>public://3060.jpg</v>
+      </c>
+      <c r="D32" s="100">
         <v>3818880</v>
       </c>
-      <c r="E32" s="161">
+      <c r="E32" s="94">
         <f t="shared" si="1"/>
         <v>4969000</v>
       </c>
-      <c r="F32" s="160" t="s">
+      <c r="F32" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
-        <v>3060</v>
-      </c>
-      <c r="B33" s="163" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B33" s="96" t="s">
         <v>472</v>
       </c>
-      <c r="C33" s="162" t="str">
+      <c r="C33" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3060.jpg</v>
-      </c>
-      <c r="D33" s="88">
+        <v>public://3061.jpg</v>
+      </c>
+      <c r="D33" s="100">
         <v>3714048</v>
       </c>
-      <c r="E33" s="161">
+      <c r="E33" s="94">
         <f t="shared" si="1"/>
         <v>4864000</v>
       </c>
-      <c r="F33" s="160" t="s">
+      <c r="F33" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
-        <v>3061</v>
-      </c>
-      <c r="B34" s="163" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B34" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="C34" s="162" t="str">
+      <c r="C34" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3061.jpg</v>
-      </c>
-      <c r="D34" s="88">
+        <v>public://3062.jpg</v>
+      </c>
+      <c r="D34" s="100">
         <v>4093440</v>
       </c>
-      <c r="E34" s="161">
+      <c r="E34" s="94">
         <f t="shared" si="1"/>
         <v>5243000</v>
       </c>
-      <c r="F34" s="160" t="s">
+      <c r="F34" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
-        <v>3062</v>
-      </c>
-      <c r="B35" s="163" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B35" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="C35" s="162" t="str">
+      <c r="C35" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3062.jpg</v>
-      </c>
-      <c r="D35" s="166">
+        <v>public://3063.jpg</v>
+      </c>
+      <c r="D35" s="100">
         <v>3818880</v>
       </c>
-      <c r="E35" s="161">
+      <c r="E35" s="94">
         <f t="shared" si="1"/>
         <v>4969000</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
-        <v>3063</v>
-      </c>
-      <c r="B36" s="163" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B36" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="C36" s="162" t="str">
+      <c r="C36" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3063.jpg</v>
-      </c>
-      <c r="D36" s="88">
+        <v>public://3064.jpg</v>
+      </c>
+      <c r="D36" s="100">
         <v>3714048</v>
       </c>
-      <c r="E36" s="161">
+      <c r="E36" s="94">
         <f t="shared" si="1"/>
         <v>4864000</v>
       </c>
-      <c r="F36" s="160" t="s">
+      <c r="F36" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
-        <v>3064</v>
-      </c>
-      <c r="B37" s="163" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B37" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="C37" s="162" t="str">
+      <c r="C37" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3064.jpg</v>
-      </c>
-      <c r="D37" s="88">
+        <v>public://3065.jpg</v>
+      </c>
+      <c r="D37" s="100">
         <v>4093440</v>
       </c>
-      <c r="E37" s="161">
+      <c r="E37" s="94">
         <f t="shared" si="1"/>
         <v>5243000</v>
       </c>
-      <c r="F37" s="160" t="s">
+      <c r="F37" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
-        <v>3065</v>
-      </c>
-      <c r="B38" s="163" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B38" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="C38" s="162" t="str">
+      <c r="C38" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3065.jpg</v>
-      </c>
-      <c r="D38" s="166">
+        <v>public://3066.jpg</v>
+      </c>
+      <c r="D38" s="100">
         <v>3644160</v>
       </c>
-      <c r="E38" s="161">
+      <c r="E38" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="89">
-        <v>3066</v>
-      </c>
-      <c r="B39" s="163" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B39" s="96" t="s">
         <v>488</v>
       </c>
-      <c r="C39" s="162" t="str">
+      <c r="C39" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3066.jpg</v>
-      </c>
-      <c r="D39" s="166">
+        <v>public://3067.jpg</v>
+      </c>
+      <c r="D39" s="100">
         <v>3818880</v>
       </c>
-      <c r="E39" s="161">
+      <c r="E39" s="94">
         <f t="shared" si="1"/>
         <v>4969000</v>
       </c>
-      <c r="F39" s="160" t="s">
+      <c r="F39" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="89">
-        <v>3067</v>
-      </c>
-      <c r="B40" s="163" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B40" s="96" t="s">
         <v>489</v>
       </c>
-      <c r="C40" s="162" t="str">
+      <c r="C40" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3067.jpg</v>
-      </c>
-      <c r="D40" s="88">
+        <v>public://3068.jpg</v>
+      </c>
+      <c r="D40" s="100">
         <v>3714048</v>
       </c>
-      <c r="E40" s="161">
+      <c r="E40" s="94">
         <f t="shared" si="1"/>
         <v>4864000</v>
       </c>
-      <c r="F40" s="160" t="s">
+      <c r="F40" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="89">
-        <v>3068</v>
-      </c>
-      <c r="B41" s="163" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B41" s="96" t="s">
         <v>490</v>
       </c>
-      <c r="C41" s="162" t="str">
+      <c r="C41" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3068.jpg</v>
-      </c>
-      <c r="D41" s="88">
+        <v>public://3069.jpg</v>
+      </c>
+      <c r="D41" s="100">
         <v>4093440</v>
       </c>
-      <c r="F41" s="160"/>
+      <c r="E41" s="94">
+        <f t="shared" si="1"/>
+        <v>5243000</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="89">
-        <v>3069</v>
-      </c>
-      <c r="B42" s="163" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B42" s="96" t="s">
         <v>491</v>
       </c>
-      <c r="C42" s="162" t="str">
+      <c r="C42" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3069.jpg</v>
-      </c>
-      <c r="D42" s="166">
+        <v>public://3070.jpg</v>
+      </c>
+      <c r="D42" s="100">
         <v>3644160</v>
       </c>
-      <c r="E42" s="161">
+      <c r="E42" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F42" s="160" t="s">
+      <c r="F42" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="89">
-        <v>3070</v>
-      </c>
-      <c r="B43" s="163" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B43" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="162" t="str">
+      <c r="C43" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3070.jpg</v>
-      </c>
-      <c r="D43" s="166">
+        <v>public://3071.jpg</v>
+      </c>
+      <c r="D43" s="100">
         <v>3644160</v>
       </c>
-      <c r="E43" s="161">
+      <c r="E43" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="89">
-        <v>3071</v>
-      </c>
-      <c r="B44" s="163" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B44" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C44" s="162" t="str">
+      <c r="C44" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3071.jpg</v>
-      </c>
-      <c r="D44" s="88">
+        <v>public://3072.jpg</v>
+      </c>
+      <c r="D44" s="100">
         <v>3244800</v>
       </c>
-      <c r="E44" s="161">
+      <c r="E44" s="94">
         <f t="shared" si="1"/>
         <v>4395000</v>
       </c>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="89">
-        <v>3072</v>
-      </c>
-      <c r="B45" s="163" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B45" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="162" t="str">
+      <c r="C45" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3072.jpg</v>
-      </c>
-      <c r="D45" s="88">
+        <v>public://3073.jpg</v>
+      </c>
+      <c r="D45" s="100">
         <v>2945280</v>
       </c>
-      <c r="E45" s="161">
+      <c r="E45" s="94">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="F45" s="160" t="s">
+      <c r="F45" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="89">
-        <v>3073</v>
-      </c>
-      <c r="B46" s="163" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B46" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="C46" s="162" t="str">
+      <c r="C46" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3073.jpg</v>
-      </c>
-      <c r="D46" s="88">
+        <v>public://3074.jpg</v>
+      </c>
+      <c r="D46" s="100">
         <v>2945280</v>
       </c>
-      <c r="E46" s="161">
+      <c r="E46" s="94">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="F46" s="160" t="s">
+      <c r="F46" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="89">
-        <v>3074</v>
-      </c>
-      <c r="B47" s="163" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B47" s="96" t="s">
         <v>453</v>
       </c>
-      <c r="C47" s="162" t="str">
+      <c r="C47" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3074.jpg</v>
-      </c>
-      <c r="D47" s="88">
+        <v>public://3075.jpg</v>
+      </c>
+      <c r="D47" s="100">
         <v>2945280</v>
       </c>
-      <c r="E47" s="161">
+      <c r="E47" s="94">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="F47" s="160" t="s">
+      <c r="F47" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="89">
-        <v>3075</v>
-      </c>
-      <c r="B48" s="163" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B48" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="C48" s="162" t="str">
+      <c r="C48" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3075.jpg</v>
-      </c>
-      <c r="D48" s="88">
+        <v>public://3076.jpg</v>
+      </c>
+      <c r="D48" s="100">
         <v>2945280</v>
       </c>
-      <c r="E48" s="161">
+      <c r="E48" s="94">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="89">
-        <v>3076</v>
-      </c>
-      <c r="B49" s="163" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B49" s="96" t="s">
         <v>492</v>
       </c>
-      <c r="C49" s="162" t="str">
+      <c r="C49" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3076.jpg</v>
-      </c>
-      <c r="D49" s="88">
+        <v>public://3077.jpg</v>
+      </c>
+      <c r="D49" s="100">
         <v>3389568</v>
       </c>
-      <c r="E49" s="161">
+      <c r="E49" s="94">
         <f t="shared" si="1"/>
         <v>4540000</v>
       </c>
-      <c r="F49" s="160" t="s">
+      <c r="F49" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="89">
-        <v>3077</v>
-      </c>
-      <c r="B50" s="163" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B50" s="96" t="s">
         <v>493</v>
       </c>
-      <c r="C50" s="162" t="str">
+      <c r="C50" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3077.jpg</v>
-      </c>
-      <c r="D50" s="88">
+        <v>public://3078.jpg</v>
+      </c>
+      <c r="D50" s="100">
         <v>3619200</v>
       </c>
-      <c r="E50" s="161">
+      <c r="E50" s="94">
         <f t="shared" si="1"/>
         <v>4769000</v>
       </c>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="89">
-        <v>3078</v>
-      </c>
-      <c r="B51" s="163" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B51" s="96" t="s">
         <v>494</v>
       </c>
-      <c r="C51" s="162" t="str">
+      <c r="C51" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3078.jpg</v>
-      </c>
-      <c r="D51" s="88">
+        <v>public://3079.jpg</v>
+      </c>
+      <c r="D51" s="100">
         <v>3983616.0000000005</v>
       </c>
-      <c r="E51" s="161">
+      <c r="E51" s="94">
         <f t="shared" si="1"/>
         <v>5134000</v>
       </c>
-      <c r="F51" s="160" t="s">
+      <c r="F51" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="89">
-        <v>3079</v>
-      </c>
-      <c r="B52" s="163" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B52" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="C52" s="162" t="str">
+      <c r="C52" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3079.jpg</v>
-      </c>
-      <c r="D52" s="88">
+        <v>public://3080.jpg</v>
+      </c>
+      <c r="D52" s="100">
         <v>4223232</v>
       </c>
-      <c r="E52" s="161">
+      <c r="E52" s="94">
         <f t="shared" si="1"/>
         <v>5373000</v>
       </c>
-      <c r="F52" s="160"/>
+      <c r="F52" s="93" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="89">
-        <v>3080</v>
-      </c>
-      <c r="B53" s="163" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B53" s="96" t="s">
         <v>455</v>
       </c>
-      <c r="C53" s="162" t="str">
+      <c r="C53" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3080.jpg</v>
-      </c>
-      <c r="D53" s="166">
+        <v>public://3081.jpg</v>
+      </c>
+      <c r="D53" s="100">
         <v>3643920</v>
       </c>
-      <c r="E53" s="161">
+      <c r="E53" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F53" s="160" t="s">
+      <c r="F53" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="89">
-        <v>3081</v>
-      </c>
-      <c r="B54" s="163" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B54" s="96" t="s">
         <v>456</v>
       </c>
-      <c r="C54" s="162" t="str">
+      <c r="C54" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3081.jpg</v>
-      </c>
-      <c r="D54" s="166">
+        <v>public://3082.jpg</v>
+      </c>
+      <c r="D54" s="100">
         <v>3643920</v>
       </c>
-      <c r="E54" s="161">
+      <c r="E54" s="94">
         <f t="shared" si="1"/>
         <v>4794000</v>
       </c>
-      <c r="F54" s="160" t="s">
+      <c r="F54" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="89">
-        <v>3082</v>
-      </c>
-      <c r="B55" s="163" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B55" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="C55" s="162" t="str">
+      <c r="C55" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3082.jpg</v>
-      </c>
-      <c r="D55" s="40">
+        <v>public://3083.jpg</v>
+      </c>
+      <c r="D55" s="100">
         <v>2998800</v>
       </c>
-      <c r="E55" s="161">
+      <c r="E55" s="94">
         <f t="shared" si="1"/>
         <v>4149000</v>
       </c>
-      <c r="F55" s="160" t="s">
+      <c r="F55" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="89">
-        <v>3083</v>
-      </c>
-      <c r="B56" s="163" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B56" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="162" t="str">
+      <c r="C56" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3083.jpg</v>
-      </c>
-      <c r="D56" s="166">
+        <v>public://3084.jpg</v>
+      </c>
+      <c r="D56" s="100">
         <v>3341520</v>
       </c>
-      <c r="E56" s="161">
+      <c r="E56" s="94">
         <f t="shared" si="1"/>
         <v>4492000</v>
       </c>
-      <c r="F56" s="160" t="s">
+      <c r="F56" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="89">
-        <v>3084</v>
-      </c>
-      <c r="B57" s="163" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B57" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="C57" s="162" t="str">
+      <c r="C57" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3084.jpg</v>
-      </c>
-      <c r="D57" s="166">
+        <v>public://3085.jpg</v>
+      </c>
+      <c r="D57" s="100">
         <v>3341520</v>
       </c>
-      <c r="E57" s="161">
+      <c r="E57" s="94">
         <f t="shared" si="1"/>
         <v>4492000</v>
       </c>
-      <c r="F57" s="160" t="s">
+      <c r="F57" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="89">
-        <v>3085</v>
-      </c>
-      <c r="B58" s="163" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B58" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="162" t="str">
+      <c r="C58" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3085.jpg</v>
-      </c>
-      <c r="D58" s="88">
+        <v>public://3086.jpg</v>
+      </c>
+      <c r="D58" s="100">
         <v>4093440</v>
       </c>
-      <c r="E58" s="161">
+      <c r="E58" s="94">
         <f t="shared" si="1"/>
         <v>5243000</v>
       </c>
-      <c r="F58" s="160" t="s">
+      <c r="F58" s="93" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="89">
-        <v>3086</v>
-      </c>
-      <c r="B59" s="163" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B59" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="C59" s="162" t="str">
+      <c r="C59" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>public://3086.jpg</v>
-      </c>
-      <c r="D59" s="40">
+        <v>public://3087.jpg</v>
+      </c>
+      <c r="D59" s="100">
         <v>2998800</v>
       </c>
-      <c r="E59" s="161">
+      <c r="E59" s="94">
         <f t="shared" si="1"/>
         <v>4149000</v>
       </c>
-      <c r="F59" s="160" t="s">
+      <c r="F59" s="93" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9836,2098 +9841,2098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="175"/>
-    <col min="3" max="3" width="42.5" style="175" customWidth="1"/>
-    <col min="4" max="4" width="18" style="175" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="175" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="182" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="175" customWidth="1"/>
-    <col min="8" max="8" width="65.1640625" style="182" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="175"/>
+    <col min="1" max="2" width="9.33203125" style="103"/>
+    <col min="3" max="3" width="42.5" style="103" customWidth="1"/>
+    <col min="4" max="4" width="18" style="103" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="103" customWidth="1"/>
+    <col min="8" max="8" width="65.1640625" style="110" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="175" t="s">
+      <c r="G1" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="175" t="s">
+      <c r="I1" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="175" t="s">
+      <c r="J1" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="175" t="s">
+      <c r="K1" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="175" t="s">
+      <c r="L1" s="103" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="175" t="s">
+      <c r="M1" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="175" t="s">
+      <c r="N1" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="175" t="s">
+      <c r="O1" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="175" t="s">
+      <c r="R1" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="S1" s="175" t="s">
+      <c r="S1" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="175" t="s">
+      <c r="T1" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="175" t="s">
+      <c r="U1" s="103" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="177">
+      <c r="A2" s="105">
         <f>'1'!A2</f>
         <v>3030</v>
       </c>
-      <c r="B2" s="177">
+      <c r="B2" s="105">
         <f>A2</f>
         <v>3030</v>
       </c>
-      <c r="C2" s="178" t="str">
+      <c r="C2" s="106" t="str">
         <f>'1'!B2</f>
         <v>Кухня "Татьяна-2  1,6м"</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="179" t="s">
+      <c r="F2" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H2" s="179" t="s">
+      <c r="H2" s="107" t="s">
         <v>438</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="175" t="s">
+      <c r="K2" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S2" s="175">
+      <c r="S2" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="177">
+      <c r="A3" s="105">
         <f>'1'!A3</f>
         <v>3031</v>
       </c>
-      <c r="B3" s="177">
+      <c r="B3" s="105">
         <f t="shared" ref="B3:B54" si="0">A3</f>
         <v>3031</v>
       </c>
-      <c r="C3" s="178" t="str">
+      <c r="C3" s="106" t="str">
         <f>'1'!B3</f>
         <v>Кухня София (Белый / сирень)</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J3" s="175" t="s">
+      <c r="J3" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S3" s="175">
+      <c r="S3" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="177">
+      <c r="A4" s="105">
         <f>'1'!A4</f>
         <v>3032</v>
       </c>
-      <c r="B4" s="177">
+      <c r="B4" s="105">
         <f t="shared" si="0"/>
         <v>3032</v>
       </c>
-      <c r="C4" s="178" t="str">
+      <c r="C4" s="106" t="str">
         <f>'1'!B4</f>
         <v>Кухня София Гранат</v>
       </c>
-      <c r="D4" s="174" t="s">
+      <c r="D4" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F4" s="180" t="s">
+      <c r="F4" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G4" s="175" t="s">
+      <c r="G4" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="180" t="s">
+      <c r="H4" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="175" t="s">
+      <c r="J4" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K4" s="175" t="s">
+      <c r="K4" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S4" s="175">
+      <c r="S4" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="177">
+      <c r="A5" s="105">
         <f>'1'!A5</f>
         <v>3033</v>
       </c>
-      <c r="B5" s="177">
+      <c r="B5" s="105">
         <f t="shared" si="0"/>
         <v>3033</v>
       </c>
-      <c r="C5" s="178" t="str">
+      <c r="C5" s="106" t="str">
         <f>'1'!B5</f>
         <v>Кухня София Огни</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G5" s="175" t="s">
+      <c r="G5" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="175" t="s">
+      <c r="J5" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="175" t="s">
+      <c r="K5" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S5" s="175">
+      <c r="S5" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="177">
+      <c r="A6" s="105">
         <f>'1'!A6</f>
         <v>3034</v>
       </c>
-      <c r="B6" s="177">
+      <c r="B6" s="105">
         <f t="shared" si="0"/>
         <v>3034</v>
       </c>
-      <c r="C6" s="178" t="str">
+      <c r="C6" s="106" t="str">
         <f>'1'!B6</f>
         <v>Кухня София Зеленая</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J6" s="175" t="s">
+      <c r="J6" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="175" t="s">
+      <c r="K6" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S6" s="175">
+      <c r="S6" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="177">
+      <c r="A7" s="105">
         <f>'1'!A7</f>
         <v>3035</v>
       </c>
-      <c r="B7" s="177">
+      <c r="B7" s="105">
         <f t="shared" si="0"/>
         <v>3035</v>
       </c>
-      <c r="C7" s="178" t="str">
+      <c r="C7" s="106" t="str">
         <f>'1'!B7</f>
         <v>Кухня София Оранж</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F7" s="180" t="s">
+      <c r="F7" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H7" s="180" t="s">
+      <c r="H7" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="175" t="s">
+      <c r="J7" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K7" s="175" t="s">
+      <c r="K7" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S7" s="175">
+      <c r="S7" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="177">
+      <c r="A8" s="105">
         <f>'1'!A8</f>
         <v>3036</v>
       </c>
-      <c r="B8" s="177">
+      <c r="B8" s="105">
         <f t="shared" si="0"/>
         <v>3036</v>
       </c>
-      <c r="C8" s="178" t="str">
+      <c r="C8" s="106" t="str">
         <f>'1'!B8</f>
         <v>Кухня София Сирень</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="180" t="s">
+      <c r="F8" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="180" t="s">
+      <c r="H8" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J8" s="175" t="s">
+      <c r="J8" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K8" s="175" t="s">
+      <c r="K8" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S8" s="175">
+      <c r="S8" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="177">
+      <c r="A9" s="105">
         <f>'1'!A9</f>
         <v>3037</v>
       </c>
-      <c r="B9" s="177">
+      <c r="B9" s="105">
         <f t="shared" si="0"/>
         <v>3037</v>
       </c>
-      <c r="C9" s="178" t="str">
+      <c r="C9" s="106" t="str">
         <f>'1'!B9</f>
         <v>Кухня Олива 3D ( Белый/ бирюза) 2.1м</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="180" t="s">
+      <c r="F9" s="108" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K9" s="175" t="s">
+      <c r="K9" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S9" s="175">
+      <c r="S9" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="177">
+      <c r="A10" s="105">
         <f>'1'!A10</f>
         <v>3038</v>
       </c>
-      <c r="B10" s="177">
+      <c r="B10" s="105">
         <f t="shared" si="0"/>
         <v>3038</v>
       </c>
-      <c r="C10" s="178" t="str">
+      <c r="C10" s="106" t="str">
         <f>'1'!B10</f>
         <v>Кухня Олива 3D ( Белый/ бирюза) 2.2м</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="180" t="s">
+      <c r="F10" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="180" t="s">
+      <c r="H10" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J10" s="175" t="s">
+      <c r="J10" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="175" t="s">
+      <c r="K10" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S10" s="175">
+      <c r="S10" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="177">
+      <c r="A11" s="105">
         <f>'1'!A11</f>
         <v>3039</v>
       </c>
-      <c r="B11" s="177">
+      <c r="B11" s="105">
         <f t="shared" si="0"/>
         <v>3039</v>
       </c>
-      <c r="C11" s="178" t="str">
+      <c r="C11" s="106" t="str">
         <f>'1'!B11</f>
         <v>Кухня Олива 3D ( Белый/ бирюза) 1.8м</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="175" t="s">
+      <c r="E11" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="180" t="s">
+      <c r="F11" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="180" t="s">
+      <c r="H11" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J11" s="175" t="s">
+      <c r="J11" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K11" s="175" t="s">
+      <c r="K11" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S11" s="175">
+      <c r="S11" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="177">
+      <c r="A12" s="105">
         <f>'1'!A12</f>
         <v>3040</v>
       </c>
-      <c r="B12" s="177">
+      <c r="B12" s="105">
         <f t="shared" si="0"/>
         <v>3040</v>
       </c>
-      <c r="C12" s="178" t="str">
+      <c r="C12" s="106" t="str">
         <f>'1'!B12</f>
         <v>Кухня Мокко (Кофе с молоком/шоколад) 2.2м</v>
       </c>
-      <c r="D12" s="174" t="s">
+      <c r="D12" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="180" t="s">
+      <c r="F12" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="G12" s="175" t="s">
+      <c r="G12" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="180" t="s">
+      <c r="H12" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J12" s="175" t="s">
+      <c r="J12" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K12" s="175" t="s">
+      <c r="K12" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S12" s="175">
+      <c r="S12" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="177">
+      <c r="A13" s="105">
         <f>'1'!A13</f>
         <v>3041</v>
       </c>
-      <c r="B13" s="177">
+      <c r="B13" s="105">
         <f t="shared" si="0"/>
         <v>3041</v>
       </c>
-      <c r="C13" s="178" t="str">
+      <c r="C13" s="106" t="str">
         <f>'1'!B13</f>
         <v>Кухня Мокко (Кофе с молоком/шоколад) 1.8м</v>
       </c>
-      <c r="D13" s="174" t="s">
+      <c r="D13" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E13" s="175" t="s">
+      <c r="E13" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="180" t="s">
+      <c r="F13" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="180" t="s">
+      <c r="H13" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J13" s="175" t="s">
+      <c r="J13" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K13" s="175" t="s">
+      <c r="K13" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S13" s="175">
+      <c r="S13" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="177">
+      <c r="A14" s="105">
         <f>'1'!A14</f>
         <v>3042</v>
       </c>
-      <c r="B14" s="177">
+      <c r="B14" s="105">
         <f t="shared" si="0"/>
         <v>3042</v>
       </c>
-      <c r="C14" s="178" t="str">
+      <c r="C14" s="106" t="str">
         <f>'1'!B14</f>
         <v>Кухня Татьяна (венге/ беленый дуб)</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E14" s="175" t="s">
+      <c r="E14" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="180" t="s">
+      <c r="F14" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G14" s="175" t="s">
+      <c r="G14" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="J14" s="175" t="s">
+      <c r="J14" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="175" t="s">
+      <c r="K14" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S14" s="175">
+      <c r="S14" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="177">
+      <c r="A15" s="105">
         <f>'1'!A15</f>
         <v>3043</v>
       </c>
-      <c r="B15" s="177">
+      <c r="B15" s="105">
         <f t="shared" si="0"/>
         <v>3043</v>
       </c>
-      <c r="C15" s="178" t="str">
+      <c r="C15" s="106" t="str">
         <f>'1'!B15</f>
         <v>Кухня Татьяна (Ясень комби)</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E15" s="175" t="s">
+      <c r="E15" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="180" t="s">
+      <c r="F15" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G15" s="175" t="s">
+      <c r="G15" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="180" t="s">
+      <c r="H15" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="J15" s="175" t="s">
+      <c r="J15" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K15" s="175" t="s">
+      <c r="K15" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S15" s="175">
+      <c r="S15" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="177">
+      <c r="A16" s="105">
         <f>'1'!A16</f>
         <v>3044</v>
       </c>
-      <c r="B16" s="177">
+      <c r="B16" s="105">
         <f t="shared" si="0"/>
         <v>3044</v>
       </c>
-      <c r="C16" s="178" t="str">
+      <c r="C16" s="106" t="str">
         <f>'1'!B16</f>
         <v>Кухня Верона "Орех Гварнери" 2.2м</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E16" s="175" t="s">
+      <c r="E16" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F16" s="180" t="s">
+      <c r="F16" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="G16" s="175" t="s">
+      <c r="G16" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="180" t="s">
+      <c r="H16" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J16" s="175" t="s">
+      <c r="J16" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K16" s="175" t="s">
+      <c r="K16" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S16" s="175">
+      <c r="S16" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="177">
+      <c r="A17" s="105">
         <f>'1'!A17</f>
         <v>3045</v>
       </c>
-      <c r="B17" s="177">
+      <c r="B17" s="105">
         <f t="shared" si="0"/>
         <v>3045</v>
       </c>
-      <c r="C17" s="178" t="str">
+      <c r="C17" s="106" t="str">
         <f>'1'!B17</f>
         <v>Кухня Верона "Орех Гварнери" 1.8м</v>
       </c>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E17" s="175" t="s">
+      <c r="E17" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="180" t="s">
+      <c r="F17" s="108" t="s">
         <v>502</v>
       </c>
-      <c r="G17" s="175" t="s">
+      <c r="G17" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="175" t="s">
+      <c r="J17" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="175" t="s">
+      <c r="K17" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S17" s="175">
+      <c r="S17" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="177">
+      <c r="A18" s="105">
         <f>'1'!A18</f>
         <v>3046</v>
       </c>
-      <c r="B18" s="177">
+      <c r="B18" s="105">
         <f t="shared" si="0"/>
         <v>3046</v>
       </c>
-      <c r="C18" s="178" t="str">
+      <c r="C18" s="106" t="str">
         <f>'1'!B18</f>
         <v>Кухня Верона "Сосна белая" 2.2м</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="175" t="s">
+      <c r="E18" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="180" t="s">
+      <c r="F18" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H18" s="180" t="s">
+      <c r="H18" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J18" s="175" t="s">
+      <c r="J18" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K18" s="175" t="s">
+      <c r="K18" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S18" s="175">
+      <c r="S18" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="177">
+      <c r="A19" s="105">
         <f>'1'!A19</f>
         <v>3047</v>
       </c>
-      <c r="B19" s="177">
+      <c r="B19" s="105">
         <f t="shared" si="0"/>
         <v>3047</v>
       </c>
-      <c r="C19" s="178" t="str">
+      <c r="C19" s="106" t="str">
         <f>'1'!B19</f>
         <v>Кухня Верона "Сосна белая" 1.8м</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E19" s="175" t="s">
+      <c r="E19" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F19" s="180" t="s">
+      <c r="F19" s="108" t="s">
         <v>502</v>
       </c>
-      <c r="G19" s="175" t="s">
+      <c r="G19" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H19" s="180" t="s">
+      <c r="H19" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J19" s="175" t="s">
+      <c r="J19" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K19" s="175" t="s">
+      <c r="K19" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S19" s="175">
+      <c r="S19" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="177">
+      <c r="A20" s="105">
         <f>'1'!A20</f>
         <v>3048</v>
       </c>
-      <c r="B20" s="177">
+      <c r="B20" s="105">
         <f t="shared" si="0"/>
         <v>3048</v>
       </c>
-      <c r="C20" s="178" t="str">
+      <c r="C20" s="106" t="str">
         <f>'1'!B20</f>
         <v>Кухня Олива "Вишня"</v>
       </c>
-      <c r="D20" s="174" t="s">
+      <c r="D20" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E20" s="175" t="s">
+      <c r="E20" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="180" t="s">
+      <c r="F20" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G20" s="175" t="s">
+      <c r="G20" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H20" s="180" t="s">
+      <c r="H20" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J20" s="175" t="s">
+      <c r="J20" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K20" s="175" t="s">
+      <c r="K20" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S20" s="175">
+      <c r="S20" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="177">
+      <c r="A21" s="105">
         <f>'1'!A21</f>
         <v>3049</v>
       </c>
-      <c r="B21" s="177">
+      <c r="B21" s="105">
         <f t="shared" si="0"/>
         <v>3049</v>
       </c>
-      <c r="C21" s="178" t="str">
+      <c r="C21" s="106" t="str">
         <f>'1'!B21</f>
         <v>Кухня "Орхидея"</v>
       </c>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G21" s="175" t="s">
+      <c r="G21" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H21" s="180" t="s">
+      <c r="H21" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J21" s="175" t="s">
+      <c r="J21" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K21" s="175" t="s">
+      <c r="K21" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S21" s="175">
+      <c r="S21" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="177">
+      <c r="A22" s="105">
         <f>'1'!A22</f>
         <v>3050</v>
       </c>
-      <c r="B22" s="177">
+      <c r="B22" s="105">
         <f t="shared" si="0"/>
         <v>3050</v>
       </c>
-      <c r="C22" s="178" t="str">
+      <c r="C22" s="106" t="str">
         <f>'1'!B22</f>
         <v>Кухня "Абрикос"</v>
       </c>
-      <c r="D22" s="174" t="s">
+      <c r="D22" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E22" s="175" t="s">
+      <c r="E22" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="180" t="s">
+      <c r="F22" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G22" s="175" t="s">
+      <c r="G22" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H22" s="180" t="s">
+      <c r="H22" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J22" s="175" t="s">
+      <c r="J22" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K22" s="175" t="s">
+      <c r="K22" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S22" s="175">
+      <c r="S22" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="177">
+      <c r="A23" s="105">
         <f>'1'!A23</f>
         <v>3051</v>
       </c>
-      <c r="B23" s="177">
+      <c r="B23" s="105">
         <f t="shared" si="0"/>
         <v>3051</v>
       </c>
-      <c r="C23" s="178" t="str">
+      <c r="C23" s="106" t="str">
         <f>'1'!B23</f>
         <v>Кухня Олива "Лайм 2 ,1"</v>
       </c>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="175" t="s">
+      <c r="E23" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F23" s="180" t="s">
+      <c r="F23" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G23" s="175" t="s">
+      <c r="G23" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H23" s="180" t="s">
+      <c r="H23" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J23" s="175" t="s">
+      <c r="J23" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K23" s="175" t="s">
+      <c r="K23" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S23" s="175">
+      <c r="S23" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="177">
+      <c r="A24" s="105">
         <f>'1'!A24</f>
         <v>3052</v>
       </c>
-      <c r="B24" s="177">
+      <c r="B24" s="105">
         <f t="shared" si="0"/>
         <v>3052</v>
       </c>
-      <c r="C24" s="178" t="str">
+      <c r="C24" s="106" t="str">
         <f>'1'!B24</f>
         <v>Кухня "Лайм 1,6"</v>
       </c>
-      <c r="D24" s="174" t="s">
+      <c r="D24" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E24" s="175" t="s">
+      <c r="E24" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="180" t="s">
+      <c r="F24" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G24" s="175" t="s">
+      <c r="G24" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H24" s="180" t="s">
+      <c r="H24" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J24" s="175" t="s">
+      <c r="J24" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K24" s="175" t="s">
+      <c r="K24" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S24" s="175">
+      <c r="S24" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="177">
+      <c r="A25" s="105">
         <f>'1'!A25</f>
         <v>3053</v>
       </c>
-      <c r="B25" s="177">
+      <c r="B25" s="105">
         <f t="shared" si="0"/>
         <v>3053</v>
       </c>
-      <c r="C25" s="178" t="str">
+      <c r="C25" s="106" t="str">
         <f>'1'!B25</f>
         <v>Кухня "Лайм 1,8"</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E25" s="175" t="s">
+      <c r="E25" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F25" s="180" t="s">
+      <c r="F25" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G25" s="175" t="s">
+      <c r="G25" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H25" s="180" t="s">
+      <c r="H25" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J25" s="175" t="s">
+      <c r="J25" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K25" s="175" t="s">
+      <c r="K25" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S25" s="175">
+      <c r="S25" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="177">
+      <c r="A26" s="105">
         <f>'1'!A26</f>
         <v>3054</v>
       </c>
-      <c r="B26" s="177">
+      <c r="B26" s="105">
         <f t="shared" si="0"/>
         <v>3054</v>
       </c>
-      <c r="C26" s="178" t="str">
+      <c r="C26" s="106" t="str">
         <f>'1'!B26</f>
         <v>Кухня "Лайм 2,0"</v>
       </c>
-      <c r="D26" s="174" t="s">
+      <c r="D26" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F26" s="180" t="s">
+      <c r="F26" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G26" s="175" t="s">
+      <c r="G26" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H26" s="180" t="s">
+      <c r="H26" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J26" s="175" t="s">
+      <c r="J26" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K26" s="175" t="s">
+      <c r="K26" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S26" s="175">
+      <c r="S26" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="177">
+      <c r="A27" s="105">
         <f>'1'!A27</f>
         <v>3055</v>
       </c>
-      <c r="B27" s="177">
+      <c r="B27" s="105">
         <f t="shared" si="0"/>
         <v>3055</v>
       </c>
-      <c r="C27" s="178" t="str">
+      <c r="C27" s="106" t="str">
         <f>'1'!B27</f>
         <v>Кухня "Персик" 2,1м</v>
       </c>
-      <c r="D27" s="174" t="s">
+      <c r="D27" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E27" s="175" t="s">
+      <c r="E27" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G27" s="175" t="s">
+      <c r="G27" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H27" s="180" t="s">
+      <c r="H27" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J27" s="175" t="s">
+      <c r="J27" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K27" s="175" t="s">
+      <c r="K27" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S27" s="175">
+      <c r="S27" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="177">
+      <c r="A28" s="105">
         <f>'1'!A28</f>
         <v>3056</v>
       </c>
-      <c r="B28" s="177">
+      <c r="B28" s="105">
         <f t="shared" si="0"/>
         <v>3056</v>
       </c>
-      <c r="C28" s="178" t="str">
+      <c r="C28" s="106" t="str">
         <f>'1'!B28</f>
         <v>Кухня "Персик" 1,6м</v>
       </c>
-      <c r="D28" s="174" t="s">
+      <c r="D28" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E28" s="175" t="s">
+      <c r="E28" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F28" s="180" t="s">
+      <c r="F28" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G28" s="175" t="s">
+      <c r="G28" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H28" s="180" t="s">
+      <c r="H28" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J28" s="175" t="s">
+      <c r="J28" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K28" s="175" t="s">
+      <c r="K28" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S28" s="175">
+      <c r="S28" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="177">
+      <c r="A29" s="105">
         <f>'1'!A29</f>
         <v>3057</v>
       </c>
-      <c r="B29" s="177">
+      <c r="B29" s="105">
         <f t="shared" si="0"/>
         <v>3057</v>
       </c>
-      <c r="C29" s="178" t="str">
+      <c r="C29" s="106" t="str">
         <f>'1'!B29</f>
         <v>Кухня "Персик" 1,8м</v>
       </c>
-      <c r="D29" s="174" t="s">
+      <c r="D29" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E29" s="175" t="s">
+      <c r="E29" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="180" t="s">
+      <c r="F29" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G29" s="175" t="s">
+      <c r="G29" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H29" s="180" t="s">
+      <c r="H29" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J29" s="175" t="s">
+      <c r="J29" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K29" s="175" t="s">
+      <c r="K29" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S29" s="175">
+      <c r="S29" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="177">
+      <c r="A30" s="105">
         <f>'1'!A30</f>
-        <v>0</v>
-      </c>
-      <c r="B30" s="177">
+        <v>3058</v>
+      </c>
+      <c r="B30" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="178" t="str">
+        <v>3058</v>
+      </c>
+      <c r="C30" s="106" t="str">
         <f>'1'!B30</f>
         <v>Кухня "Персик" 2,0м</v>
       </c>
-      <c r="D30" s="174" t="s">
+      <c r="D30" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E30" s="175" t="s">
+      <c r="E30" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F30" s="180" t="s">
+      <c r="F30" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G30" s="175" t="s">
+      <c r="G30" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H30" s="180" t="s">
+      <c r="H30" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J30" s="175" t="s">
+      <c r="J30" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K30" s="175" t="s">
+      <c r="K30" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S30" s="175">
+      <c r="S30" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="177">
+      <c r="A31" s="105">
         <f>'1'!A31</f>
-        <v>3058</v>
-      </c>
-      <c r="B31" s="177">
+        <v>3059</v>
+      </c>
+      <c r="B31" s="105">
         <f t="shared" si="0"/>
-        <v>3058</v>
-      </c>
-      <c r="C31" s="178" t="str">
+        <v>3059</v>
+      </c>
+      <c r="C31" s="106" t="str">
         <f>'1'!B31</f>
         <v>Кухня "Ежевика" 2.1м</v>
       </c>
-      <c r="D31" s="174" t="s">
+      <c r="D31" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E31" s="175" t="s">
+      <c r="E31" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G31" s="175" t="s">
+      <c r="G31" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H31" s="180" t="s">
+      <c r="H31" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="175" t="s">
+      <c r="J31" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K31" s="175" t="s">
+      <c r="K31" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S31" s="175">
+      <c r="S31" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="177">
+      <c r="A32" s="105">
         <f>'1'!A32</f>
-        <v>3059</v>
-      </c>
-      <c r="B32" s="177">
+        <v>3060</v>
+      </c>
+      <c r="B32" s="105">
         <f t="shared" si="0"/>
-        <v>3059</v>
-      </c>
-      <c r="C32" s="178" t="str">
+        <v>3060</v>
+      </c>
+      <c r="C32" s="106" t="str">
         <f>'1'!B32</f>
         <v>Кухня "Ежевика" 1.6м</v>
       </c>
-      <c r="D32" s="174" t="s">
+      <c r="D32" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E32" s="175" t="s">
+      <c r="E32" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="180" t="s">
+      <c r="F32" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G32" s="175" t="s">
+      <c r="G32" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H32" s="180" t="s">
+      <c r="H32" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J32" s="175" t="s">
+      <c r="J32" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K32" s="175" t="s">
+      <c r="K32" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S32" s="175">
+      <c r="S32" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="177">
+      <c r="A33" s="105">
         <f>'1'!A33</f>
-        <v>3060</v>
-      </c>
-      <c r="B33" s="177">
+        <v>3061</v>
+      </c>
+      <c r="B33" s="105">
         <f t="shared" si="0"/>
-        <v>3060</v>
-      </c>
-      <c r="C33" s="178" t="str">
+        <v>3061</v>
+      </c>
+      <c r="C33" s="106" t="str">
         <f>'1'!B33</f>
         <v>Кухня "Ежевика" 1.8м</v>
       </c>
-      <c r="D33" s="174" t="s">
+      <c r="D33" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E33" s="175" t="s">
+      <c r="E33" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F33" s="180" t="s">
+      <c r="F33" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G33" s="175" t="s">
+      <c r="G33" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J33" s="175" t="s">
+      <c r="J33" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K33" s="175" t="s">
+      <c r="K33" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S33" s="175">
+      <c r="S33" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="177">
+      <c r="A34" s="105">
         <f>'1'!A34</f>
-        <v>3061</v>
-      </c>
-      <c r="B34" s="177">
+        <v>3062</v>
+      </c>
+      <c r="B34" s="105">
         <f t="shared" si="0"/>
-        <v>3061</v>
-      </c>
-      <c r="C34" s="178" t="str">
+        <v>3062</v>
+      </c>
+      <c r="C34" s="106" t="str">
         <f>'1'!B34</f>
         <v>Кухня "Ежевика" 2.0м</v>
       </c>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E34" s="175" t="s">
+      <c r="E34" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F34" s="180" t="s">
+      <c r="F34" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G34" s="175" t="s">
+      <c r="G34" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="180" t="s">
+      <c r="H34" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J34" s="175" t="s">
+      <c r="J34" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K34" s="175" t="s">
+      <c r="K34" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S34" s="175">
+      <c r="S34" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="177">
+      <c r="A35" s="105">
         <f>'1'!A35</f>
-        <v>3062</v>
-      </c>
-      <c r="B35" s="177">
+        <v>3063</v>
+      </c>
+      <c r="B35" s="105">
         <f t="shared" si="0"/>
-        <v>3062</v>
-      </c>
-      <c r="C35" s="178" t="str">
+        <v>3063</v>
+      </c>
+      <c r="C35" s="106" t="str">
         <f>'1'!B35</f>
         <v>Кухня "Яблоко"</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="175" t="s">
+      <c r="E35" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F35" s="180" t="s">
+      <c r="F35" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G35" s="175" t="s">
+      <c r="G35" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H35" s="180" t="s">
+      <c r="H35" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J35" s="175" t="s">
+      <c r="J35" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K35" s="175" t="s">
+      <c r="K35" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S35" s="175">
+      <c r="S35" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="177">
+      <c r="A36" s="105">
         <f>'1'!A36</f>
-        <v>3063</v>
-      </c>
-      <c r="B36" s="177">
+        <v>3064</v>
+      </c>
+      <c r="B36" s="105">
         <f t="shared" si="0"/>
-        <v>3063</v>
-      </c>
-      <c r="C36" s="178" t="str">
+        <v>3064</v>
+      </c>
+      <c r="C36" s="106" t="str">
         <f>'1'!B36</f>
         <v>Кухня "Яблоко"</v>
       </c>
-      <c r="D36" s="174" t="s">
+      <c r="D36" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E36" s="175" t="s">
+      <c r="E36" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F36" s="180" t="s">
+      <c r="F36" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G36" s="175" t="s">
+      <c r="G36" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H36" s="180" t="s">
+      <c r="H36" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J36" s="175" t="s">
+      <c r="J36" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K36" s="175" t="s">
+      <c r="K36" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S36" s="175">
+      <c r="S36" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="177">
+      <c r="A37" s="105">
         <f>'1'!A37</f>
-        <v>3064</v>
-      </c>
-      <c r="B37" s="177">
+        <v>3065</v>
+      </c>
+      <c r="B37" s="105">
         <f t="shared" si="0"/>
-        <v>3064</v>
-      </c>
-      <c r="C37" s="178" t="str">
+        <v>3065</v>
+      </c>
+      <c r="C37" s="106" t="str">
         <f>'1'!B37</f>
         <v>Кухня "Яблоко"</v>
       </c>
-      <c r="D37" s="174" t="s">
+      <c r="D37" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E37" s="175" t="s">
+      <c r="E37" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="175" t="s">
+      <c r="G37" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J37" s="175" t="s">
+      <c r="J37" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K37" s="175" t="s">
+      <c r="K37" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S37" s="175">
+      <c r="S37" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="177">
+      <c r="A38" s="105">
         <f>'1'!A38</f>
-        <v>3065</v>
-      </c>
-      <c r="B38" s="177">
+        <v>3066</v>
+      </c>
+      <c r="B38" s="105">
         <f t="shared" si="0"/>
-        <v>3065</v>
-      </c>
-      <c r="C38" s="178" t="str">
+        <v>3066</v>
+      </c>
+      <c r="C38" s="106" t="str">
         <f>'1'!B38</f>
         <v>Кухня "Гранат" 2.1м</v>
       </c>
-      <c r="D38" s="174" t="s">
+      <c r="D38" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E38" s="175" t="s">
+      <c r="E38" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G38" s="175" t="s">
+      <c r="G38" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H38" s="180" t="s">
+      <c r="H38" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J38" s="175" t="s">
+      <c r="J38" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K38" s="175" t="s">
+      <c r="K38" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S38" s="175">
+      <c r="S38" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="177">
+      <c r="A39" s="105">
         <f>'1'!A39</f>
-        <v>3066</v>
-      </c>
-      <c r="B39" s="177">
+        <v>3067</v>
+      </c>
+      <c r="B39" s="105">
         <f t="shared" si="0"/>
-        <v>3066</v>
-      </c>
-      <c r="C39" s="178" t="str">
+        <v>3067</v>
+      </c>
+      <c r="C39" s="106" t="str">
         <f>'1'!B39</f>
         <v>Кухня "Гранат" 1.6м</v>
       </c>
-      <c r="D39" s="174" t="s">
+      <c r="D39" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E39" s="175" t="s">
+      <c r="E39" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G39" s="175" t="s">
+      <c r="G39" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H39" s="180" t="s">
+      <c r="H39" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J39" s="175" t="s">
+      <c r="J39" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K39" s="175" t="s">
+      <c r="K39" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S39" s="175">
+      <c r="S39" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="177">
+      <c r="A40" s="105">
         <f>'1'!A40</f>
-        <v>3067</v>
-      </c>
-      <c r="B40" s="177">
+        <v>3068</v>
+      </c>
+      <c r="B40" s="105">
         <f t="shared" si="0"/>
-        <v>3067</v>
-      </c>
-      <c r="C40" s="178" t="str">
+        <v>3068</v>
+      </c>
+      <c r="C40" s="106" t="str">
         <f>'1'!B40</f>
         <v>Кухня "Гранат" 1.8м</v>
       </c>
-      <c r="D40" s="174" t="s">
+      <c r="D40" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F40" s="180" t="s">
+      <c r="F40" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="175" t="s">
+      <c r="G40" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H40" s="180" t="s">
+      <c r="H40" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="J40" s="175" t="s">
+      <c r="J40" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="175" t="s">
+      <c r="K40" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S40" s="175">
+      <c r="S40" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="177">
+      <c r="A41" s="105">
         <f>'1'!A41</f>
-        <v>3068</v>
-      </c>
-      <c r="B41" s="177">
+        <v>3069</v>
+      </c>
+      <c r="B41" s="105">
         <f t="shared" si="0"/>
-        <v>3068</v>
-      </c>
-      <c r="C41" s="178" t="str">
+        <v>3069</v>
+      </c>
+      <c r="C41" s="106" t="str">
         <f>'1'!B41</f>
         <v>Кухня "Гранат" 2.0м</v>
       </c>
-      <c r="D41" s="174" t="s">
+      <c r="D41" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E41" s="175" t="s">
+      <c r="E41" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F41" s="180" t="s">
+      <c r="F41" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G41" s="175" t="s">
+      <c r="G41" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H41" s="180" t="s">
+      <c r="H41" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J41" s="175" t="s">
+      <c r="J41" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K41" s="175" t="s">
+      <c r="K41" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S41" s="175">
+      <c r="S41" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="177">
+      <c r="A42" s="105">
         <f>'1'!A42</f>
-        <v>3069</v>
-      </c>
-      <c r="B42" s="177">
+        <v>3070</v>
+      </c>
+      <c r="B42" s="105">
         <f t="shared" si="0"/>
-        <v>3069</v>
-      </c>
-      <c r="C42" s="178" t="str">
+        <v>3070</v>
+      </c>
+      <c r="C42" s="106" t="str">
         <f>'1'!B42</f>
         <v>Кухня "Бокал" 2.1м</v>
       </c>
-      <c r="D42" s="174" t="s">
+      <c r="D42" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E42" s="175" t="s">
+      <c r="E42" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F42" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G42" s="175" t="s">
+      <c r="G42" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H42" s="180" t="s">
+      <c r="H42" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J42" s="175" t="s">
+      <c r="J42" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K42" s="175" t="s">
+      <c r="K42" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S42" s="175">
+      <c r="S42" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="177">
+      <c r="A43" s="105">
         <f>'1'!A43</f>
-        <v>3070</v>
-      </c>
-      <c r="B43" s="177">
+        <v>3071</v>
+      </c>
+      <c r="B43" s="105">
         <f t="shared" si="0"/>
-        <v>3070</v>
-      </c>
-      <c r="C43" s="178" t="str">
+        <v>3071</v>
+      </c>
+      <c r="C43" s="106" t="str">
         <f>'1'!B43</f>
         <v>Кухня "Кофе"</v>
       </c>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E43" s="175" t="s">
+      <c r="E43" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G43" s="175" t="s">
+      <c r="G43" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H43" s="180" t="s">
+      <c r="H43" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J43" s="175" t="s">
+      <c r="J43" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K43" s="175" t="s">
+      <c r="K43" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S43" s="175">
+      <c r="S43" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="177">
+      <c r="A44" s="105">
         <f>'1'!A44</f>
-        <v>3071</v>
-      </c>
-      <c r="B44" s="177">
+        <v>3072</v>
+      </c>
+      <c r="B44" s="105">
         <f t="shared" si="0"/>
-        <v>3071</v>
-      </c>
-      <c r="C44" s="178" t="str">
+        <v>3072</v>
+      </c>
+      <c r="C44" s="106" t="str">
         <f>'1'!B44</f>
         <v>Кухня "Маша" </v>
       </c>
-      <c r="D44" s="174" t="s">
+      <c r="D44" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E44" s="175" t="s">
+      <c r="E44" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F44" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G44" s="175" t="s">
+      <c r="G44" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H44" s="180" t="s">
+      <c r="H44" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J44" s="175" t="s">
+      <c r="J44" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K44" s="175" t="s">
+      <c r="K44" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S44" s="175">
+      <c r="S44" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="177">
+      <c r="A45" s="105">
         <f>'1'!A45</f>
-        <v>3072</v>
-      </c>
-      <c r="B45" s="177">
+        <v>3073</v>
+      </c>
+      <c r="B45" s="105">
         <f t="shared" si="0"/>
-        <v>3072</v>
-      </c>
-      <c r="C45" s="178" t="str">
+        <v>3073</v>
+      </c>
+      <c r="C45" s="106" t="str">
         <f>'1'!B45</f>
         <v>Кухня Олива (Капучино/шоколад)</v>
       </c>
-      <c r="D45" s="174" t="s">
+      <c r="D45" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E45" s="175" t="s">
+      <c r="E45" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F45" s="180" t="s">
+      <c r="F45" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="G45" s="175" t="s">
+      <c r="G45" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H45" s="180" t="s">
+      <c r="H45" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J45" s="175" t="s">
+      <c r="J45" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K45" s="175" t="s">
+      <c r="K45" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S45" s="175">
+      <c r="S45" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="177">
+      <c r="A46" s="105">
         <f>'1'!A46</f>
-        <v>3073</v>
-      </c>
-      <c r="B46" s="177">
+        <v>3074</v>
+      </c>
+      <c r="B46" s="105">
         <f t="shared" si="0"/>
-        <v>3073</v>
-      </c>
-      <c r="C46" s="178" t="str">
+        <v>3074</v>
+      </c>
+      <c r="C46" s="106" t="str">
         <f>'1'!B46</f>
         <v>Кухня "Монако фисташка"</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="175" t="s">
+      <c r="E46" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F46" s="180" t="s">
+      <c r="F46" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="G46" s="175" t="s">
+      <c r="G46" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H46" s="180" t="s">
+      <c r="H46" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J46" s="175" t="s">
+      <c r="J46" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K46" s="175" t="s">
+      <c r="K46" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S46" s="175">
+      <c r="S46" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="177">
+      <c r="A47" s="105">
         <f>'1'!A47</f>
-        <v>3074</v>
-      </c>
-      <c r="B47" s="177">
+        <v>3075</v>
+      </c>
+      <c r="B47" s="105">
         <f t="shared" si="0"/>
-        <v>3074</v>
-      </c>
-      <c r="C47" s="178" t="str">
+        <v>3075</v>
+      </c>
+      <c r="C47" s="106" t="str">
         <f>'1'!B47</f>
         <v>Кухня "Монако сандал"</v>
       </c>
-      <c r="D47" s="174" t="s">
+      <c r="D47" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E47" s="175" t="s">
+      <c r="E47" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F47" s="180" t="s">
+      <c r="F47" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G47" s="175" t="s">
+      <c r="G47" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H47" s="180" t="s">
+      <c r="H47" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J47" s="175" t="s">
+      <c r="J47" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K47" s="175" t="s">
+      <c r="K47" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S47" s="175">
+      <c r="S47" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="177">
+      <c r="A48" s="105">
         <f>'1'!A48</f>
-        <v>3075</v>
-      </c>
-      <c r="B48" s="177">
+        <v>3076</v>
+      </c>
+      <c r="B48" s="105">
         <f t="shared" si="0"/>
-        <v>3075</v>
-      </c>
-      <c r="C48" s="178" t="str">
+        <v>3076</v>
+      </c>
+      <c r="C48" s="106" t="str">
         <f>'1'!B48</f>
         <v>Кухня "Монако сандал/бразильский орех"</v>
       </c>
-      <c r="D48" s="174" t="s">
+      <c r="D48" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E48" s="175" t="s">
+      <c r="E48" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="180" t="s">
+      <c r="F48" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G48" s="175" t="s">
+      <c r="G48" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H48" s="180" t="s">
+      <c r="H48" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J48" s="175" t="s">
+      <c r="J48" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K48" s="175" t="s">
+      <c r="K48" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S48" s="175">
+      <c r="S48" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="177">
+      <c r="A49" s="105">
         <f>'1'!A49</f>
-        <v>3076</v>
-      </c>
-      <c r="B49" s="177">
+        <v>3077</v>
+      </c>
+      <c r="B49" s="105">
         <f t="shared" si="0"/>
-        <v>3076</v>
-      </c>
-      <c r="C49" s="178" t="str">
+        <v>3077</v>
+      </c>
+      <c r="C49" s="106" t="str">
         <f>'1'!B49</f>
         <v>Кухня Флора 2.1м</v>
       </c>
-      <c r="D49" s="174" t="s">
+      <c r="D49" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E49" s="175" t="s">
+      <c r="E49" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F49" s="180" t="s">
+      <c r="F49" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G49" s="175" t="s">
+      <c r="G49" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H49" s="180" t="s">
+      <c r="H49" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J49" s="175" t="s">
+      <c r="J49" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K49" s="175" t="s">
+      <c r="K49" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S49" s="175">
+      <c r="S49" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="177">
+      <c r="A50" s="105">
         <f>'1'!A50</f>
-        <v>3077</v>
-      </c>
-      <c r="B50" s="177">
+        <v>3078</v>
+      </c>
+      <c r="B50" s="105">
         <f t="shared" si="0"/>
-        <v>3077</v>
-      </c>
-      <c r="C50" s="178" t="str">
+        <v>3078</v>
+      </c>
+      <c r="C50" s="106" t="str">
         <f>'1'!B50</f>
         <v>Кухня Флора 1.6м</v>
       </c>
-      <c r="D50" s="174" t="s">
+      <c r="D50" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E50" s="175" t="s">
+      <c r="E50" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F50" s="180" t="s">
+      <c r="F50" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="175" t="s">
+      <c r="G50" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H50" s="181" t="s">
+      <c r="H50" s="109" t="s">
         <v>439</v>
       </c>
-      <c r="J50" s="175" t="s">
+      <c r="J50" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K50" s="175" t="s">
+      <c r="K50" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S50" s="175">
+      <c r="S50" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="177">
+      <c r="A51" s="105">
         <f>'1'!A51</f>
-        <v>3078</v>
-      </c>
-      <c r="B51" s="177">
+        <v>3079</v>
+      </c>
+      <c r="B51" s="105">
         <f t="shared" si="0"/>
-        <v>3078</v>
-      </c>
-      <c r="C51" s="178" t="str">
+        <v>3079</v>
+      </c>
+      <c r="C51" s="106" t="str">
         <f>'1'!B51</f>
         <v>Кухня Флора 1.8м</v>
       </c>
-      <c r="D51" s="174" t="s">
+      <c r="D51" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="175" t="s">
+      <c r="E51" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F51" s="180" t="s">
+      <c r="F51" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G51" s="175" t="s">
+      <c r="G51" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H51" s="180" t="s">
+      <c r="H51" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J51" s="175" t="s">
+      <c r="J51" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K51" s="175" t="s">
+      <c r="K51" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S51" s="175">
+      <c r="S51" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="177">
+      <c r="A52" s="105">
         <f>'1'!A52</f>
-        <v>3079</v>
-      </c>
-      <c r="B52" s="177">
+        <v>3080</v>
+      </c>
+      <c r="B52" s="105">
         <f t="shared" si="0"/>
-        <v>3079</v>
-      </c>
-      <c r="C52" s="178" t="str">
+        <v>3080</v>
+      </c>
+      <c r="C52" s="106" t="str">
         <f>'1'!B52</f>
         <v>Кухня Флора 2.0м</v>
       </c>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E52" s="175" t="s">
+      <c r="E52" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F52" s="180" t="s">
+      <c r="F52" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G52" s="175" t="s">
+      <c r="G52" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H52" s="180" t="s">
+      <c r="H52" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J52" s="175" t="s">
+      <c r="J52" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K52" s="175" t="s">
+      <c r="K52" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S52" s="175">
+      <c r="S52" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="177">
+      <c r="A53" s="105">
         <f>'1'!A53</f>
-        <v>3080</v>
-      </c>
-      <c r="B53" s="177">
+        <v>3081</v>
+      </c>
+      <c r="B53" s="105">
         <f t="shared" si="0"/>
-        <v>3080</v>
-      </c>
-      <c r="C53" s="178" t="str">
+        <v>3081</v>
+      </c>
+      <c r="C53" s="106" t="str">
         <f>'1'!B53</f>
         <v>Кухня София 2,1м ДЮНА желтая</v>
       </c>
-      <c r="D53" s="174" t="s">
+      <c r="D53" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E53" s="175" t="s">
+      <c r="E53" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F53" s="180" t="s">
+      <c r="F53" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G53" s="175" t="s">
+      <c r="G53" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H53" s="180" t="s">
+      <c r="H53" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="J53" s="175" t="s">
+      <c r="J53" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K53" s="175" t="s">
+      <c r="K53" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S53" s="175">
+      <c r="S53" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="177">
+      <c r="A54" s="105">
         <f>'1'!A54</f>
-        <v>3081</v>
-      </c>
-      <c r="B54" s="177">
+        <v>3082</v>
+      </c>
+      <c r="B54" s="105">
         <f t="shared" si="0"/>
-        <v>3081</v>
-      </c>
-      <c r="C54" s="178" t="str">
+        <v>3082</v>
+      </c>
+      <c r="C54" s="106" t="str">
         <f>'1'!B54</f>
         <v>Кухня София 2,1м ДЮНА зеленая</v>
       </c>
-      <c r="D54" s="174" t="s">
+      <c r="D54" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="E54" s="175" t="s">
+      <c r="E54" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="F54" s="180" t="s">
+      <c r="F54" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="175" t="s">
+      <c r="G54" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="H54" s="181" t="s">
+      <c r="H54" s="109" t="s">
         <v>439</v>
       </c>
-      <c r="J54" s="175" t="s">
+      <c r="J54" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="K54" s="175" t="s">
+      <c r="K54" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="S54" s="175">
+      <c r="S54" s="103">
         <v>1</v>
       </c>
     </row>

--- a/прайс И от 24.02.2016 (интерьер центр).xlsx
+++ b/прайс И от 24.02.2016 (интерьер центр).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="45" windowWidth="15480" windowHeight="11580" tabRatio="231" activeTab="1"/>
+    <workbookView xWindow="13095" yWindow="45" windowWidth="15480" windowHeight="11580" tabRatio="231" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="504">
   <si>
     <t>Мебель для Кухни</t>
   </si>
@@ -1335,9 +1335,6 @@
     <t>ЛДСП</t>
   </si>
   <si>
-    <t>ЛДСП Вставки из стекла лакобель</t>
-  </si>
-  <si>
     <t>Цена поставшика</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>Кухня "Лайм 2,0"</t>
   </si>
   <si>
-    <t>Кухня "Яблоко"</t>
-  </si>
-  <si>
     <t>Кухня "Кофе"</t>
   </si>
   <si>
@@ -1525,6 +1519,15 @@
   </si>
   <si>
     <t>1,8м.п. (без пенала)</t>
+  </si>
+  <si>
+    <t>Кухня "Яблоко" 1.6м</t>
+  </si>
+  <si>
+    <t>Кухня "Яблоко" 1.8м</t>
+  </si>
+  <si>
+    <t>Кухня "Яблоко" 2.0м</t>
   </si>
 </sst>
 </file>
@@ -2680,184 +2683,25 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2879,8 +2723,167 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3279,54 +3282,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
     </row>
     <row r="2" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="166" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="166"/>
     </row>
     <row r="3" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
     </row>
     <row r="4" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
     </row>
     <row r="7" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
     </row>
     <row r="8" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="165"/>
       <c r="D9" s="12"/>
       <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="159" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="12"/>
       <c r="F10" s="73" t="s">
         <v>387</v>
@@ -3342,10 +3345,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="130"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="72" t="s">
         <v>382</v>
       </c>
@@ -3367,10 +3370,10 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="12"/>
       <c r="F13" s="73" t="s">
         <v>389</v>
@@ -3611,10 +3614,10 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="143"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3729,10 +3732,10 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="154" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="141"/>
+      <c r="C33" s="155"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3816,10 +3819,10 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="154"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -3837,10 +3840,10 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3899,10 +3902,10 @@
       </c>
     </row>
     <row r="45" spans="2:14" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="12"/>
       <c r="F45" s="73" t="s">
         <v>392</v>
@@ -3955,7 +3958,7 @@
         <v>38,3486728024543%</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F48" s="78" t="s">
         <v>404</v>
@@ -3968,10 +3971,10 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="124"/>
+      <c r="C49" s="172"/>
       <c r="D49" s="12"/>
       <c r="F49" s="81" t="s">
         <v>405</v>
@@ -3984,10 +3987,10 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="2:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="126"/>
+      <c r="C50" s="174"/>
       <c r="D50" s="12"/>
       <c r="F50" s="84" t="s">
         <v>406</v>
@@ -3998,10 +4001,10 @@
       <c r="H50" s="81"/>
     </row>
     <row r="51" spans="2:14" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="144" t="s">
+      <c r="B51" s="148" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="145"/>
+      <c r="C51" s="149"/>
       <c r="D51" s="53"/>
       <c r="F51" s="82" t="s">
         <v>407</v>
@@ -4047,10 +4050,10 @@
       <c r="C55" s="39">
         <v>219240.00000000003</v>
       </c>
-      <c r="D55" s="111" t="s">
+      <c r="D55" s="161" t="s">
         <v>429</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="83" t="s">
         <v>408</v>
       </c>
@@ -4065,8 +4068,8 @@
       <c r="C56" s="39">
         <v>257040.00000000003</v>
       </c>
-      <c r="D56" s="111"/>
-      <c r="E56" s="112"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="162"/>
       <c r="F56" s="83" t="s">
         <v>409</v>
       </c>
@@ -4081,8 +4084,8 @@
       <c r="C57" s="39">
         <v>299880.00000000006</v>
       </c>
-      <c r="D57" s="111"/>
-      <c r="E57" s="112"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="162"/>
       <c r="F57" s="83" t="s">
         <v>410</v>
       </c>
@@ -4097,8 +4100,8 @@
       <c r="C58" s="39">
         <v>171360</v>
       </c>
-      <c r="D58" s="111"/>
-      <c r="E58" s="112"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="162"/>
       <c r="F58" s="86"/>
     </row>
     <row r="59" spans="2:14" ht="18" x14ac:dyDescent="0.25">
@@ -4108,8 +4111,8 @@
       <c r="C59" s="39">
         <v>176400</v>
       </c>
-      <c r="D59" s="111"/>
-      <c r="E59" s="112"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="162"/>
       <c r="F59" s="83" t="s">
         <v>411</v>
       </c>
@@ -4124,8 +4127,8 @@
       <c r="C60" s="39">
         <v>199080</v>
       </c>
-      <c r="D60" s="111"/>
-      <c r="E60" s="112"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="162"/>
       <c r="F60" s="86"/>
     </row>
     <row r="61" spans="2:14" ht="18" x14ac:dyDescent="0.25">
@@ -4135,8 +4138,8 @@
       <c r="C61" s="40">
         <v>703080.00000000012</v>
       </c>
-      <c r="D61" s="111"/>
-      <c r="E61" s="112"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="162"/>
       <c r="F61" s="83" t="s">
         <v>413</v>
       </c>
@@ -4151,8 +4154,8 @@
       <c r="C62" s="39">
         <v>136080</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="112"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="162"/>
       <c r="F62" s="83" t="s">
         <v>414</v>
       </c>
@@ -4167,8 +4170,8 @@
       <c r="C63" s="39">
         <v>199080</v>
       </c>
-      <c r="D63" s="111"/>
-      <c r="E63" s="112"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="162"/>
       <c r="F63" s="83" t="s">
         <v>415</v>
       </c>
@@ -4183,8 +4186,8 @@
       <c r="C64" s="39">
         <v>357840.00000000006</v>
       </c>
-      <c r="D64" s="111"/>
-      <c r="E64" s="112"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="162"/>
       <c r="F64" s="83" t="s">
         <v>416</v>
       </c>
@@ -4199,8 +4202,8 @@
       <c r="C65" s="41">
         <v>372960</v>
       </c>
-      <c r="D65" s="111"/>
-      <c r="E65" s="112"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="162"/>
       <c r="F65" s="83" t="s">
         <v>417</v>
       </c>
@@ -4215,8 +4218,8 @@
       <c r="C66" s="38">
         <v>279720</v>
       </c>
-      <c r="D66" s="111"/>
-      <c r="E66" s="112"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="162"/>
     </row>
     <row r="67" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
@@ -4225,8 +4228,8 @@
       <c r="C67" s="39">
         <v>350280.00000000006</v>
       </c>
-      <c r="D67" s="111"/>
-      <c r="E67" s="112"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="162"/>
       <c r="F67" s="83" t="s">
         <v>418</v>
       </c>
@@ -4241,8 +4244,8 @@
       <c r="C68" s="39">
         <v>408240.00000000006</v>
       </c>
-      <c r="D68" s="111"/>
-      <c r="E68" s="112"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="162"/>
       <c r="F68" s="84" t="s">
         <v>420</v>
       </c>
@@ -4260,8 +4263,8 @@
       <c r="C69" s="39">
         <v>458640.00000000006</v>
       </c>
-      <c r="D69" s="111"/>
-      <c r="E69" s="112"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="162"/>
       <c r="F69" s="76" t="s">
         <v>422</v>
       </c>
@@ -4279,8 +4282,8 @@
       <c r="C70" s="40">
         <v>516600.00000000006</v>
       </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="112"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="162"/>
       <c r="F70" s="76" t="s">
         <v>424</v>
       </c>
@@ -4298,8 +4301,8 @@
       <c r="C71" s="40">
         <v>632520</v>
       </c>
-      <c r="D71" s="111"/>
-      <c r="E71" s="112"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="162"/>
       <c r="F71" s="76" t="s">
         <v>425</v>
       </c>
@@ -4317,8 +4320,8 @@
       <c r="C72" s="39">
         <v>478800.00000000006</v>
       </c>
-      <c r="D72" s="111"/>
-      <c r="E72" s="112"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="162"/>
       <c r="F72" s="76" t="s">
         <v>426</v>
       </c>
@@ -4336,8 +4339,8 @@
       <c r="C73" s="40">
         <v>713160.00000000012</v>
       </c>
-      <c r="D73" s="111"/>
-      <c r="E73" s="112"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="162"/>
       <c r="F73" s="76" t="s">
         <v>428</v>
       </c>
@@ -4352,8 +4355,8 @@
       <c r="C74" s="40">
         <v>768600.00000000012</v>
       </c>
-      <c r="D74" s="111"/>
-      <c r="E74" s="112"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="162"/>
       <c r="G74" s="25">
         <v>1002960</v>
       </c>
@@ -4365,8 +4368,8 @@
       <c r="C75" s="39">
         <v>360360</v>
       </c>
-      <c r="D75" s="111"/>
-      <c r="E75" s="112"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="162"/>
       <c r="G75" s="15">
         <v>851760</v>
       </c>
@@ -4378,8 +4381,8 @@
       <c r="C76" s="40">
         <v>813960.00000000012</v>
       </c>
-      <c r="D76" s="111"/>
-      <c r="E76" s="112"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="162"/>
       <c r="F76" s="76" t="s">
         <v>430</v>
       </c>
@@ -4394,8 +4397,8 @@
       <c r="C77" s="40">
         <v>745920</v>
       </c>
-      <c r="D77" s="111"/>
-      <c r="E77" s="112"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="162"/>
       <c r="H77" s="25">
         <v>1002960</v>
       </c>
@@ -4407,8 +4410,8 @@
       <c r="C78" s="40">
         <v>516600.00000000006</v>
       </c>
-      <c r="D78" s="111"/>
-      <c r="E78" s="112"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="162"/>
       <c r="H78" s="15">
         <v>851760</v>
       </c>
@@ -4420,8 +4423,8 @@
       <c r="C79" s="39">
         <v>267120</v>
       </c>
-      <c r="D79" s="111"/>
-      <c r="E79" s="112"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="162"/>
       <c r="F79" s="76" t="s">
         <v>431</v>
       </c>
@@ -4436,8 +4439,8 @@
       <c r="C80" s="39">
         <v>307440.00000000006</v>
       </c>
-      <c r="D80" s="111"/>
-      <c r="E80" s="112"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="162"/>
       <c r="F80" s="76" t="s">
         <v>432</v>
       </c>
@@ -4452,8 +4455,8 @@
       <c r="C81" s="39">
         <v>337680.00000000006</v>
       </c>
-      <c r="D81" s="111"/>
-      <c r="E81" s="112"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="162"/>
       <c r="G81" s="29">
         <v>851760</v>
       </c>
@@ -4465,8 +4468,8 @@
       <c r="C82" s="39">
         <v>292320</v>
       </c>
-      <c r="D82" s="111"/>
-      <c r="E82" s="112"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="162"/>
       <c r="G82" s="13">
         <v>700560</v>
       </c>
@@ -4478,8 +4481,8 @@
       <c r="C83" s="39">
         <v>292320</v>
       </c>
-      <c r="D83" s="111"/>
-      <c r="E83" s="112"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="162"/>
       <c r="F83" s="76" t="s">
         <v>433</v>
       </c>
@@ -4494,8 +4497,8 @@
       <c r="C84" s="39">
         <v>420840.00000000006</v>
       </c>
-      <c r="D84" s="111"/>
-      <c r="E84" s="112"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="162"/>
       <c r="G84" s="29">
         <v>851760</v>
       </c>
@@ -4592,10 +4595,10 @@
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:14" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="127" t="s">
+      <c r="B92" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="C92" s="128"/>
+      <c r="C92" s="135"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
@@ -4749,14 +4752,14 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="2:15" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="131" t="s">
+      <c r="B108" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="132"/>
-      <c r="D108" s="132"/>
-      <c r="E108" s="133"/>
-      <c r="F108" s="133"/>
-      <c r="G108" s="134"/>
+      <c r="C108" s="176"/>
+      <c r="D108" s="176"/>
+      <c r="E108" s="177"/>
+      <c r="F108" s="177"/>
+      <c r="G108" s="178"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -4767,23 +4770,23 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="2:15" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="159" t="s">
+      <c r="B109" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="C109" s="135" t="s">
+      <c r="C109" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="D109" s="167" t="s">
+      <c r="D109" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="E109" s="171" t="s">
+      <c r="E109" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="F109" s="172"/>
-      <c r="G109" s="173"/>
-      <c r="H109" s="170"/>
-      <c r="I109" s="170"/>
-      <c r="J109" s="170"/>
+      <c r="F109" s="119"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4791,15 +4794,15 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="2:15" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="160"/>
-      <c r="C110" s="136"/>
-      <c r="D110" s="168"/>
-      <c r="E110" s="174"/>
-      <c r="F110" s="175"/>
-      <c r="G110" s="176"/>
-      <c r="H110" s="170"/>
-      <c r="I110" s="170"/>
-      <c r="J110" s="170"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="117"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="122"/>
+      <c r="G110" s="123"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4807,20 +4810,20 @@
       <c r="O110" s="5"/>
     </row>
     <row r="111" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="160"/>
-      <c r="C111" s="135" t="s">
+      <c r="B111" s="143"/>
+      <c r="C111" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="D111" s="177" t="s">
+      <c r="D111" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="E111" s="165" t="s">
+      <c r="E111" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="F111" s="165" t="s">
+      <c r="F111" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="G111" s="165" t="s">
+      <c r="G111" s="112" t="s">
         <v>260</v>
       </c>
       <c r="H111" s="5"/>
@@ -4833,12 +4836,12 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="2:15" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="161"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="168"/>
-      <c r="E112" s="166"/>
-      <c r="F112" s="166"/>
-      <c r="G112" s="169"/>
+      <c r="B112" s="144"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="114"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -5804,12 +5807,12 @@
       <c r="L148" s="48"/>
     </row>
     <row r="149" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="162" t="s">
+      <c r="B149" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="163"/>
-      <c r="D149" s="163"/>
-      <c r="E149" s="164"/>
+      <c r="C149" s="146"/>
+      <c r="D149" s="146"/>
+      <c r="E149" s="147"/>
     </row>
     <row r="150" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="43" t="s">
@@ -6672,16 +6675,16 @@
       <c r="H188" s="47"/>
     </row>
     <row r="189" spans="2:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="138" t="s">
+      <c r="B189" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="139"/>
+      <c r="C189" s="153"/>
     </row>
     <row r="190" spans="2:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="127" t="s">
+      <c r="B190" s="134" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="128"/>
+      <c r="C190" s="135"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="20" t="s">
@@ -7073,10 +7076,10 @@
       </c>
     </row>
     <row r="224" spans="2:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="127" t="s">
+      <c r="B224" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C224" s="128"/>
+      <c r="C224" s="135"/>
       <c r="D224" s="11"/>
       <c r="M224"/>
       <c r="N224"/>
@@ -7106,10 +7109,10 @@
       </c>
     </row>
     <row r="227" spans="2:15" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="125" t="s">
+      <c r="B227" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="C227" s="126"/>
+      <c r="C227" s="174"/>
       <c r="D227" s="11"/>
       <c r="M227" s="56">
         <v>1209600</v>
@@ -7117,10 +7120,10 @@
       <c r="N227" s="57"/>
     </row>
     <row r="228" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="121" t="s">
+      <c r="B228" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="C228" s="122"/>
+      <c r="C228" s="170"/>
       <c r="M228" s="58">
         <v>226800.00000000003</v>
       </c>
@@ -7355,10 +7358,10 @@
       </c>
     </row>
     <row r="241" spans="2:15" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="144" t="s">
+      <c r="B241" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="C241" s="145"/>
+      <c r="C241" s="149"/>
       <c r="D241" s="55" t="s">
         <v>125</v>
       </c>
@@ -7557,10 +7560,10 @@
       </c>
     </row>
     <row r="251" spans="2:15" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="155" t="s">
+      <c r="B251" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C251" s="156"/>
+      <c r="C251" s="137"/>
       <c r="D251" s="11"/>
       <c r="M251"/>
       <c r="N251"/>
@@ -7590,10 +7593,10 @@
       </c>
     </row>
     <row r="254" spans="2:15" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="157" t="s">
+      <c r="B254" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="C254" s="158"/>
+      <c r="C254" s="139"/>
       <c r="D254" s="11"/>
       <c r="M254"/>
       <c r="N254"/>
@@ -7637,10 +7640,10 @@
       </c>
     </row>
     <row r="258" spans="2:15" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="153" t="s">
+      <c r="B258" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="C258" s="154"/>
+      <c r="C258" s="133"/>
       <c r="D258" s="11"/>
       <c r="M258" s="17" t="s">
         <v>113</v>
@@ -7847,19 +7850,19 @@
       </c>
     </row>
     <row r="272" spans="2:15" s="4" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="113" t="s">
+      <c r="B272" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="C272" s="114"/>
+      <c r="C272" s="141"/>
       <c r="D272" s="11"/>
       <c r="M272"/>
       <c r="N272"/>
     </row>
     <row r="273" spans="2:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="151" t="s">
+      <c r="B273" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="152"/>
+      <c r="C273" s="131"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" s="44" t="s">
@@ -8062,10 +8065,10 @@
       </c>
     </row>
     <row r="292" spans="2:14" s="4" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="149" t="s">
+      <c r="B292" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="C292" s="150"/>
+      <c r="C292" s="129"/>
       <c r="D292" s="59"/>
       <c r="M292"/>
       <c r="N292"/>
@@ -8155,10 +8158,10 @@
       </c>
     </row>
     <row r="298" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="129" t="s">
+      <c r="B298" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="C298" s="130"/>
+      <c r="C298" s="127"/>
     </row>
     <row r="299" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B299" s="28" t="s">
@@ -8240,10 +8243,10 @@
       </c>
     </row>
     <row r="306" spans="2:14" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="129" t="s">
+      <c r="B306" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="C306" s="130"/>
+      <c r="C306" s="127"/>
       <c r="D306" s="11"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -8329,10 +8332,10 @@
       <c r="F312" s="3"/>
     </row>
     <row r="313" spans="2:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="113" t="s">
+      <c r="B313" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C313" s="114"/>
+      <c r="C313" s="141"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
@@ -8463,12 +8466,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H109:J110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:G110"/>
-    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D55:E84"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B298:C298"/>
     <mergeCell ref="B292:C292"/>
     <mergeCell ref="B273:C273"/>
@@ -8485,32 +8508,12 @@
     <mergeCell ref="B241:C241"/>
     <mergeCell ref="E111:E112"/>
     <mergeCell ref="D109:D110"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D55:E84"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H109:J110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:G110"/>
+    <mergeCell ref="D111:D112"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8522,8 +8525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F59" sqref="F2:F59"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8546,7 +8549,7 @@
         <v>375</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>376</v>
@@ -8566,7 +8569,7 @@
         <f t="shared" ref="C2:C59" si="0">"public://"&amp;A2&amp;".jpg"</f>
         <v>public://3030.jpg</v>
       </c>
-      <c r="D2" s="178">
+      <c r="D2" s="111">
         <v>2666160</v>
       </c>
       <c r="E2" s="99">
@@ -8582,7 +8585,7 @@
         <v>3031</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8604,7 +8607,7 @@
         <v>3032</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C4" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8626,7 +8629,7 @@
         <v>3033</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8648,7 +8651,7 @@
         <v>3034</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8670,7 +8673,7 @@
         <v>3035</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C7" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8692,7 +8695,7 @@
         <v>3036</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8714,7 +8717,7 @@
         <v>3037</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C9" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8736,7 +8739,7 @@
         <v>3038</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8758,7 +8761,7 @@
         <v>3039</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C11" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8780,7 +8783,7 @@
         <v>3040</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C12" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8802,7 +8805,7 @@
         <v>3041</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C13" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8824,7 +8827,7 @@
         <v>3042</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8846,7 +8849,7 @@
         <v>3043</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C15" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8868,7 +8871,7 @@
         <v>3044</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C16" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8890,7 +8893,7 @@
         <v>3045</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C17" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8912,7 +8915,7 @@
         <v>3046</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C18" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8934,7 +8937,7 @@
         <v>3047</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C19" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8956,7 +8959,7 @@
         <v>3048</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" s="95" t="str">
         <f t="shared" si="0"/>
@@ -8978,7 +8981,7 @@
         <v>3049</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9000,7 +9003,7 @@
         <v>3050</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C22" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9022,7 +9025,7 @@
         <v>3051</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9044,7 +9047,7 @@
         <v>3052</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9066,7 +9069,7 @@
         <v>3053</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C25" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9088,7 +9091,7 @@
         <v>3054</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C26" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9110,7 +9113,7 @@
         <v>3055</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C27" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9132,7 +9135,7 @@
         <v>3056</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C28" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9154,7 +9157,7 @@
         <v>3057</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C29" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9176,7 +9179,7 @@
         <v>3058</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C30" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9198,7 +9201,7 @@
         <v>3059</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C31" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9220,7 +9223,7 @@
         <v>3060</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C32" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9242,7 +9245,7 @@
         <v>3061</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9264,7 +9267,7 @@
         <v>3062</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C34" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9286,7 +9289,7 @@
         <v>3063</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="C35" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9308,7 +9311,7 @@
         <v>3064</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C36" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9330,7 +9333,7 @@
         <v>3065</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="C37" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9352,7 +9355,7 @@
         <v>3066</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C38" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9374,7 +9377,7 @@
         <v>3067</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C39" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9396,7 +9399,7 @@
         <v>3068</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C40" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9418,7 +9421,7 @@
         <v>3069</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C41" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9440,7 +9443,7 @@
         <v>3070</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C42" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9462,7 +9465,7 @@
         <v>3071</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C43" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9484,7 +9487,7 @@
         <v>3072</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C44" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9506,7 +9509,7 @@
         <v>3073</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C45" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9528,7 +9531,7 @@
         <v>3074</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C46" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9550,7 +9553,7 @@
         <v>3075</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C47" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9572,7 +9575,7 @@
         <v>3076</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C48" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9594,7 +9597,7 @@
         <v>3077</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C49" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9616,7 +9619,7 @@
         <v>3078</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C50" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9638,7 +9641,7 @@
         <v>3079</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C51" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9660,7 +9663,7 @@
         <v>3080</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C52" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9682,7 +9685,7 @@
         <v>3081</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C53" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9704,7 +9707,7 @@
         <v>3082</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C54" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9726,7 +9729,7 @@
         <v>3083</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C55" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9748,7 +9751,7 @@
         <v>3084</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C56" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9770,7 +9773,7 @@
         <v>3085</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C57" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9792,7 +9795,7 @@
         <v>3086</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C58" s="95" t="str">
         <f t="shared" si="0"/>
@@ -9839,10 +9842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9942,7 +9945,7 @@
         <v>379</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G2" s="103" t="s">
         <v>381</v>
@@ -9980,7 +9983,7 @@
         <v>379</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G3" s="103" t="s">
         <v>381</v>
@@ -10018,7 +10021,7 @@
         <v>379</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G4" s="103" t="s">
         <v>381</v>
@@ -10056,7 +10059,7 @@
         <v>379</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G5" s="103" t="s">
         <v>381</v>
@@ -10094,7 +10097,7 @@
         <v>379</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G6" s="103" t="s">
         <v>381</v>
@@ -10132,7 +10135,7 @@
         <v>379</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G7" s="103" t="s">
         <v>381</v>
@@ -10170,7 +10173,7 @@
         <v>379</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G8" s="103" t="s">
         <v>381</v>
@@ -10208,7 +10211,7 @@
         <v>379</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G9" s="103" t="s">
         <v>381</v>
@@ -10246,7 +10249,7 @@
         <v>379</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G10" s="103" t="s">
         <v>381</v>
@@ -10284,7 +10287,7 @@
         <v>379</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G11" s="103" t="s">
         <v>381</v>
@@ -10322,7 +10325,7 @@
         <v>379</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G12" s="103" t="s">
         <v>381</v>
@@ -10360,7 +10363,7 @@
         <v>379</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G13" s="103" t="s">
         <v>381</v>
@@ -10398,7 +10401,7 @@
         <v>379</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G14" s="103" t="s">
         <v>381</v>
@@ -10436,7 +10439,7 @@
         <v>379</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G15" s="103" t="s">
         <v>381</v>
@@ -10474,7 +10477,7 @@
         <v>379</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G16" s="103" t="s">
         <v>381</v>
@@ -10512,7 +10515,7 @@
         <v>379</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G17" s="103" t="s">
         <v>381</v>
@@ -10550,7 +10553,7 @@
         <v>379</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G18" s="103" t="s">
         <v>381</v>
@@ -10588,7 +10591,7 @@
         <v>379</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G19" s="103" t="s">
         <v>381</v>
@@ -10626,7 +10629,7 @@
         <v>379</v>
       </c>
       <c r="F20" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G20" s="103" t="s">
         <v>381</v>
@@ -10664,7 +10667,7 @@
         <v>379</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G21" s="103" t="s">
         <v>381</v>
@@ -10702,7 +10705,7 @@
         <v>379</v>
       </c>
       <c r="F22" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G22" s="103" t="s">
         <v>381</v>
@@ -10740,7 +10743,7 @@
         <v>379</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G23" s="103" t="s">
         <v>381</v>
@@ -10778,7 +10781,7 @@
         <v>379</v>
       </c>
       <c r="F24" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G24" s="103" t="s">
         <v>381</v>
@@ -10816,7 +10819,7 @@
         <v>379</v>
       </c>
       <c r="F25" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G25" s="103" t="s">
         <v>381</v>
@@ -10854,7 +10857,7 @@
         <v>379</v>
       </c>
       <c r="F26" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G26" s="103" t="s">
         <v>381</v>
@@ -10892,7 +10895,7 @@
         <v>379</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G27" s="103" t="s">
         <v>381</v>
@@ -10930,7 +10933,7 @@
         <v>379</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G28" s="103" t="s">
         <v>381</v>
@@ -10968,7 +10971,7 @@
         <v>379</v>
       </c>
       <c r="F29" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G29" s="103" t="s">
         <v>381</v>
@@ -11006,7 +11009,7 @@
         <v>379</v>
       </c>
       <c r="F30" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G30" s="103" t="s">
         <v>381</v>
@@ -11044,7 +11047,7 @@
         <v>379</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G31" s="103" t="s">
         <v>381</v>
@@ -11082,7 +11085,7 @@
         <v>379</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G32" s="103" t="s">
         <v>381</v>
@@ -11120,7 +11123,7 @@
         <v>379</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G33" s="103" t="s">
         <v>381</v>
@@ -11158,7 +11161,7 @@
         <v>379</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G34" s="103" t="s">
         <v>381</v>
@@ -11187,7 +11190,7 @@
       </c>
       <c r="C35" s="106" t="str">
         <f>'1'!B35</f>
-        <v>Кухня "Яблоко"</v>
+        <v>Кухня "Яблоко" 1.6м</v>
       </c>
       <c r="D35" s="102" t="s">
         <v>380</v>
@@ -11196,7 +11199,7 @@
         <v>379</v>
       </c>
       <c r="F35" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G35" s="103" t="s">
         <v>381</v>
@@ -11225,7 +11228,7 @@
       </c>
       <c r="C36" s="106" t="str">
         <f>'1'!B36</f>
-        <v>Кухня "Яблоко"</v>
+        <v>Кухня "Яблоко" 1.8м</v>
       </c>
       <c r="D36" s="102" t="s">
         <v>380</v>
@@ -11234,7 +11237,7 @@
         <v>379</v>
       </c>
       <c r="F36" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G36" s="103" t="s">
         <v>381</v>
@@ -11263,7 +11266,7 @@
       </c>
       <c r="C37" s="106" t="str">
         <f>'1'!B37</f>
-        <v>Кухня "Яблоко"</v>
+        <v>Кухня "Яблоко" 2.0м</v>
       </c>
       <c r="D37" s="102" t="s">
         <v>380</v>
@@ -11272,7 +11275,7 @@
         <v>379</v>
       </c>
       <c r="F37" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G37" s="103" t="s">
         <v>381</v>
@@ -11310,7 +11313,7 @@
         <v>379</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G38" s="103" t="s">
         <v>381</v>
@@ -11348,7 +11351,7 @@
         <v>379</v>
       </c>
       <c r="F39" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G39" s="103" t="s">
         <v>381</v>
@@ -11386,7 +11389,7 @@
         <v>379</v>
       </c>
       <c r="F40" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G40" s="103" t="s">
         <v>381</v>
@@ -11424,7 +11427,7 @@
         <v>379</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G41" s="103" t="s">
         <v>381</v>
@@ -11462,7 +11465,7 @@
         <v>379</v>
       </c>
       <c r="F42" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G42" s="103" t="s">
         <v>381</v>
@@ -11500,7 +11503,7 @@
         <v>379</v>
       </c>
       <c r="F43" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G43" s="103" t="s">
         <v>381</v>
@@ -11538,7 +11541,7 @@
         <v>379</v>
       </c>
       <c r="F44" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G44" s="103" t="s">
         <v>381</v>
@@ -11576,7 +11579,7 @@
         <v>379</v>
       </c>
       <c r="F45" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G45" s="103" t="s">
         <v>381</v>
@@ -11614,7 +11617,7 @@
         <v>379</v>
       </c>
       <c r="F46" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G46" s="103" t="s">
         <v>381</v>
@@ -11652,7 +11655,7 @@
         <v>379</v>
       </c>
       <c r="F47" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G47" s="103" t="s">
         <v>381</v>
@@ -11690,7 +11693,7 @@
         <v>379</v>
       </c>
       <c r="F48" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G48" s="103" t="s">
         <v>381</v>
@@ -11728,7 +11731,7 @@
         <v>379</v>
       </c>
       <c r="F49" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G49" s="103" t="s">
         <v>381</v>
@@ -11766,13 +11769,13 @@
         <v>379</v>
       </c>
       <c r="F50" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G50" s="103" t="s">
         <v>381</v>
       </c>
       <c r="H50" s="109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J50" s="103" t="s">
         <v>372</v>
@@ -11804,7 +11807,7 @@
         <v>379</v>
       </c>
       <c r="F51" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G51" s="103" t="s">
         <v>381</v>
@@ -11842,7 +11845,7 @@
         <v>379</v>
       </c>
       <c r="F52" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G52" s="103" t="s">
         <v>381</v>
@@ -11880,7 +11883,7 @@
         <v>379</v>
       </c>
       <c r="F53" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G53" s="103" t="s">
         <v>381</v>
@@ -11918,13 +11921,13 @@
         <v>379</v>
       </c>
       <c r="F54" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G54" s="103" t="s">
         <v>381</v>
       </c>
       <c r="H54" s="109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J54" s="103" t="s">
         <v>372</v>
@@ -11933,6 +11936,196 @@
         <v>373</v>
       </c>
       <c r="S54" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="105">
+        <f>'1'!A55</f>
+        <v>3083</v>
+      </c>
+      <c r="B55" s="105">
+        <f t="shared" ref="B55:B59" si="1">A55</f>
+        <v>3083</v>
+      </c>
+      <c r="C55" s="106" t="str">
+        <f>'1'!B55</f>
+        <v>Кухня Кухня Олеся Дуб Сонома</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G55" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H55" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="J55" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S55" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="105">
+        <f>'1'!A56</f>
+        <v>3084</v>
+      </c>
+      <c r="B56" s="105">
+        <f t="shared" si="1"/>
+        <v>3084</v>
+      </c>
+      <c r="C56" s="106" t="str">
+        <f>'1'!B56</f>
+        <v>Кухня София 2,1м Мозаика Ваниль</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G56" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H56" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S56" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="105">
+        <f>'1'!A57</f>
+        <v>3085</v>
+      </c>
+      <c r="B57" s="105">
+        <f t="shared" si="1"/>
+        <v>3085</v>
+      </c>
+      <c r="C57" s="106" t="str">
+        <f>'1'!B57</f>
+        <v>Кухня София 2,1м Ваниль + Какао</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G57" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H57" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K57" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S57" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="105">
+        <f>'1'!A58</f>
+        <v>3086</v>
+      </c>
+      <c r="B58" s="105">
+        <f t="shared" si="1"/>
+        <v>3086</v>
+      </c>
+      <c r="C58" s="106" t="str">
+        <f>'1'!B58</f>
+        <v>Кухня Орхидея 2,0м</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H58" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K58" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S58" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="105">
+        <f>'1'!A59</f>
+        <v>3087</v>
+      </c>
+      <c r="B59" s="105">
+        <f t="shared" si="1"/>
+        <v>3087</v>
+      </c>
+      <c r="C59" s="106" t="str">
+        <f>'1'!B59</f>
+        <v>Кухня Олеся Ясень темный</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G59" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="H59" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="K59" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="S59" s="103">
         <v>1</v>
       </c>
     </row>
